--- a/InstallerContent/ASCOMInterfaceRevisions.xlsx
+++ b/InstallerContent/ASCOMInterfaceRevisions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12afc5d3dfb9693d/ASCOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ASCOMPlatform\InstallerContent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{653BDCA2-FA53-4B0F-835B-F16DA30E04A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50371229-0967-434F-A539-79E97C54441F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6CE6AE-9C36-4CB4-A867-82A42BF31249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{C77C0BB1-9FCB-4A82-8AED-44FFC5395220}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="315">
   <si>
     <t>Telescope</t>
   </si>
@@ -350,9 +350,6 @@
     <t>ImageReady</t>
   </si>
   <si>
-    <t>LastError</t>
-  </si>
-  <si>
     <t>LastExposureDuration</t>
   </si>
   <si>
@@ -957,9 +954,6 @@
   </si>
   <si>
     <t>Platform 6.3 - 2017</t>
-  </si>
-  <si>
-    <t>Removed from interface</t>
   </si>
   <si>
     <t>Platform 1 to 3</t>
@@ -1092,7 +1086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1121,12 +1115,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="lightUp">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FFFFC7CE"/>
@@ -1145,7 +1133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1194,43 +1182,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1238,7 +1189,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1279,17 +1230,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1300,10 +1242,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1651,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCFDDAB-B80A-4B5D-BA40-62EFE29ED36B}">
-  <dimension ref="A1:F490"/>
+  <dimension ref="A1:F489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,39 +1609,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="A1" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="23" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1708,19 +1650,19 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>76</v>
@@ -1746,56 +1688,56 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,7 +1749,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,7 +1761,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,7 +1773,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1843,7 +1785,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1855,7 +1797,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1867,7 +1809,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,21 +1821,21 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1905,7 +1847,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,7 +1859,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1929,7 +1871,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1941,7 +1883,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1953,7 +1895,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,15 +1903,15 @@
         <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1977,15 +1919,15 @@
         <v>60</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1993,35 +1935,35 @@
         <v>61</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2029,31 +1971,31 @@
         <v>38</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2065,7 +2007,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2077,7 +2019,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2089,61 +2031,61 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2154,10 +2096,10 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2168,10 +2110,10 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2183,79 +2125,79 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,63 +2209,63 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2335,7 +2277,7 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2347,7 +2289,7 @@
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2359,7 +2301,7 @@
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2371,7 +2313,7 @@
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2383,7 +2325,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2395,7 +2337,7 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2407,21 +2349,19 @@
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2430,10 +2370,12 @@
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="D58" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="E58" s="9"/>
       <c r="F58" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2442,12 +2384,10 @@
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="11" t="s">
-        <v>314</v>
-      </c>
+      <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,7 +2399,7 @@
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2471,33 +2411,33 @@
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="7" t="s">
-        <v>315</v>
+      <c r="E62" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>310</v>
+      <c r="E63" s="9"/>
+      <c r="F63" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,33 +2449,33 @@
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="7" t="s">
-        <v>315</v>
+      <c r="E65" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>310</v>
+      <c r="E66" s="9"/>
+      <c r="F66" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2547,31 +2487,33 @@
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="7" t="s">
-        <v>315</v>
+      <c r="E69" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2582,10 +2524,10 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2596,10 +2538,10 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2610,60 +2552,58 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>310</v>
+      <c r="E73" s="9"/>
+      <c r="F73" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2675,415 +2615,413 @@
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="7" t="s">
-        <v>315</v>
+      <c r="C79" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="B80" s="9"/>
-      <c r="C80" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>310</v>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="15"/>
+      <c r="B85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="B86" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="B89" s="9"/>
+      <c r="C89" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>254</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B93" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C93" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>310</v>
+        <v>38</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>315</v>
+        <v>288</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>310</v>
+        <v>251</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>252</v>
+        <v>55</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="7" t="s">
-        <v>315</v>
+        <v>289</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>310</v>
+        <v>193</v>
+      </c>
+      <c r="B104" s="9"/>
+      <c r="C104" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>253</v>
+        <v>57</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>258</v>
+        <v>63</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B114" s="9"/>
-      <c r="C114" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="117" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
-        <v>293</v>
-      </c>
+      <c r="A118" s="15"/>
       <c r="B118" s="1" t="s">
-        <v>291</v>
+        <v>121</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
-      <c r="B119" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="7" t="s">
-        <v>315</v>
+        <v>191</v>
+      </c>
+      <c r="B120" s="9"/>
+      <c r="C120" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="B121" s="9"/>
-      <c r="C121" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>310</v>
+      <c r="C121" s="9"/>
+      <c r="D121" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,7 +3031,7 @@
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3103,7 +3041,7 @@
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3113,7 +3051,7 @@
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3123,7 +3061,7 @@
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3133,7 +3071,7 @@
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3143,7 +3081,7 @@
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3153,7 +3091,7 @@
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3163,7 +3101,7 @@
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3173,7 +3111,7 @@
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3183,7 +3121,7 @@
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3193,175 +3131,175 @@
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B134" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C134" s="9"/>
       <c r="D134" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>310</v>
+        <v>135</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="7" t="s">
-        <v>315</v>
+        <v>288</v>
+      </c>
+      <c r="B139" s="9"/>
+      <c r="C139" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>289</v>
+        <v>136</v>
       </c>
       <c r="B140" s="9"/>
-      <c r="C140" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>310</v>
+      <c r="C140" s="9"/>
+      <c r="D140" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="7" t="s">
-        <v>315</v>
+      <c r="C141" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>288</v>
+        <v>193</v>
       </c>
       <c r="B143" s="9"/>
-      <c r="C143" s="8" t="s">
-        <v>310</v>
-      </c>
+      <c r="C143" s="9"/>
       <c r="D143" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
-      <c r="D144" s="8" t="s">
-        <v>310</v>
+      <c r="D144" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3371,57 +3309,57 @@
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3431,7 +3369,7 @@
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3441,17 +3379,17 @@
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3461,266 +3399,266 @@
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
-      <c r="D158" s="7" t="s">
-        <v>315</v>
+      <c r="D158" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
-      <c r="D159" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="D159" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="15"/>
+      <c r="B164" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="15"/>
-      <c r="B165" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>149</v>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B165" s="12"/>
+      <c r="C165" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B166" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C166" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>310</v>
+        <v>38</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="D170" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="7" t="s">
-        <v>315</v>
+        <v>288</v>
+      </c>
+      <c r="B171" s="9"/>
+      <c r="C171" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>289</v>
+        <v>55</v>
       </c>
       <c r="B172" s="9"/>
-      <c r="C172" s="8" t="s">
-        <v>310</v>
+      <c r="C172" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>55</v>
+        <v>289</v>
       </c>
       <c r="B173" s="9"/>
-      <c r="C173" s="7" t="s">
-        <v>315</v>
+      <c r="C173" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B174" s="9"/>
       <c r="C174" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B175" s="9"/>
-      <c r="C175" s="8" t="s">
-        <v>310</v>
+        <v>193</v>
+      </c>
+      <c r="B175" s="12"/>
+      <c r="C175" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B176" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="B176" s="9"/>
       <c r="C176" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B177" s="9"/>
       <c r="C177" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="B178" s="9"/>
-      <c r="C178" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>310</v>
+      <c r="C178" s="9"/>
+      <c r="D178" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="7" t="s">
-        <v>315</v>
+      <c r="C179" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B180" s="9"/>
       <c r="C180" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="B181" s="9"/>
-      <c r="C181" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>310</v>
+      <c r="C181" s="9"/>
+      <c r="D181" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -3730,324 +3668,325 @@
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
-      <c r="D184" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B185" s="9"/>
-      <c r="C185" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D185" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="C184" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="188" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
     <row r="189" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="14" t="s">
-        <v>293</v>
-      </c>
+      <c r="A189" s="15"/>
       <c r="B189" s="1" t="s">
-        <v>291</v>
+        <v>157</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>292</v>
+        <v>156</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="15"/>
-      <c r="B190" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E190" s="1" t="s">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
         <v>159</v>
+      </c>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
-      <c r="E191" s="7" t="s">
-        <v>315</v>
+        <v>191</v>
+      </c>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B192" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C192" s="12"/>
       <c r="D192" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E192" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C193" s="12"/>
       <c r="D193" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C194" s="12"/>
       <c r="D194" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B195" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C195" s="12"/>
-      <c r="D195" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
+      </c>
+      <c r="B195" s="9"/>
+      <c r="C195" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B196" s="9"/>
-      <c r="C196" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>310</v>
+        <v>38</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C196" s="9"/>
+      <c r="D196" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C197" s="9"/>
-      <c r="D197" s="7" t="s">
-        <v>315</v>
+        <v>288</v>
+      </c>
+      <c r="B197" s="9"/>
+      <c r="C197" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>289</v>
+        <v>55</v>
       </c>
       <c r="B198" s="9"/>
-      <c r="C198" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>310</v>
+      <c r="C198" s="9"/>
+      <c r="D198" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>55</v>
+        <v>289</v>
       </c>
       <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="7" t="s">
-        <v>315</v>
+      <c r="C199" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B200" s="9"/>
       <c r="C200" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B201" s="9"/>
-      <c r="C201" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>310</v>
+        <v>193</v>
+      </c>
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B202" s="12"/>
-      <c r="C202" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="B202" s="9"/>
+      <c r="C202" s="9"/>
       <c r="D202" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
-      <c r="D204" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>310</v>
+      <c r="D204" s="9"/>
+      <c r="E204" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
-      <c r="E205" s="7" t="s">
-        <v>315</v>
+      <c r="D205" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
-      <c r="D206" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E206" s="8" t="s">
-        <v>310</v>
+      <c r="D206" s="9"/>
+      <c r="E206" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B207" s="9"/>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
+      <c r="B207" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="E207" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B208" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D208" s="10" t="s">
-        <v>312</v>
-      </c>
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
       <c r="E208" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4058,90 +3997,90 @@
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
       <c r="E209" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B210" s="9"/>
-      <c r="C210" s="9"/>
+      <c r="C210" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="D210" s="9"/>
       <c r="E210" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="B211" s="9"/>
-      <c r="C211" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="D211" s="9"/>
-      <c r="E211" s="7" t="s">
-        <v>315</v>
+      <c r="C211" s="9"/>
+      <c r="D211" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
-      <c r="D212" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E212" s="8" t="s">
-        <v>310</v>
+      <c r="D212" s="9"/>
+      <c r="E212" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
       <c r="E213" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
       <c r="E214" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
-      <c r="E215" s="7" t="s">
-        <v>315</v>
+      <c r="D215" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
-      <c r="D216" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E216" s="8" t="s">
-        <v>310</v>
+      <c r="D216" s="9"/>
+      <c r="E216" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4152,7 +4091,7 @@
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4163,52 +4102,50 @@
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
-      <c r="D219" s="9"/>
-      <c r="E219" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>268</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="14" t="s">
-        <v>293</v>
-      </c>
+      <c r="A223" s="15"/>
       <c r="B223" s="1" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="15"/>
-      <c r="B224" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B224" s="9"/>
+      <c r="C224" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="B225" s="9"/>
       <c r="C225" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -4217,176 +4154,176 @@
       </c>
       <c r="B226" s="9"/>
       <c r="C226" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B227" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C227" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B230" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>310</v>
+        <v>38</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B232" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>315</v>
+        <v>288</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>310</v>
+        <v>55</v>
+      </c>
+      <c r="B233" s="9"/>
+      <c r="C233" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B234" s="9"/>
-      <c r="C234" s="7" t="s">
-        <v>315</v>
+        <v>289</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C235" s="8" t="s">
-        <v>310</v>
+        <v>270</v>
+      </c>
+      <c r="B235" s="9"/>
+      <c r="C235" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B236" s="9"/>
-      <c r="C236" s="7" t="s">
-        <v>315</v>
+        <v>287</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C237" s="8" t="s">
-        <v>310</v>
+        <v>193</v>
+      </c>
+      <c r="B237" s="9"/>
+      <c r="C237" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="B238" s="9"/>
       <c r="C238" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B239" s="9"/>
       <c r="C239" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="B240" s="9"/>
       <c r="C240" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>272</v>
+        <v>1</v>
       </c>
       <c r="B241" s="9"/>
       <c r="C241" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B242" s="9"/>
       <c r="C242" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="B243" s="9"/>
       <c r="C243" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -4395,43 +4332,43 @@
       </c>
       <c r="B244" s="9"/>
       <c r="C244" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B245" s="9"/>
       <c r="C245" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B246" s="9"/>
       <c r="C246" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>283</v>
+        <v>63</v>
       </c>
       <c r="B247" s="9"/>
       <c r="C247" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>63</v>
+        <v>274</v>
       </c>
       <c r="B248" s="9"/>
       <c r="C248" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -4440,7 +4377,7 @@
       </c>
       <c r="B249" s="9"/>
       <c r="C249" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -4449,7 +4386,7 @@
       </c>
       <c r="B250" s="9"/>
       <c r="C250" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -4458,43 +4395,43 @@
       </c>
       <c r="B251" s="9"/>
       <c r="C251" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="B252" s="9"/>
       <c r="C252" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>207</v>
+        <v>278</v>
       </c>
       <c r="B253" s="9"/>
       <c r="C253" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B254" s="9"/>
       <c r="C254" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B255" s="9"/>
       <c r="C255" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -4503,7 +4440,7 @@
       </c>
       <c r="B256" s="9"/>
       <c r="C256" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -4512,950 +4449,953 @@
       </c>
       <c r="B257" s="9"/>
       <c r="C257" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B258" s="9"/>
-      <c r="C258" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="15"/>
+      <c r="B262" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E262" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="15"/>
-      <c r="B263" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>173</v>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B263" s="9"/>
+      <c r="C263" s="9"/>
+      <c r="D263" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
       <c r="D264" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B265" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C265" s="9"/>
       <c r="D265" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C266" s="9"/>
       <c r="D266" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C267" s="9"/>
       <c r="D267" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B268" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C268" s="9"/>
-      <c r="D268" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D268" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C269" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D269" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E269" s="8" t="s">
-        <v>310</v>
+        <v>38</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B270" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C270" s="9"/>
-      <c r="D270" s="9"/>
-      <c r="E270" s="7" t="s">
-        <v>315</v>
+        <v>288</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D270" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E270" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C271" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D271" s="8" t="s">
-        <v>310</v>
+        <v>55</v>
+      </c>
+      <c r="B271" s="9"/>
+      <c r="C271" s="9"/>
+      <c r="D271" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B272" s="9"/>
-      <c r="C272" s="9"/>
-      <c r="D272" s="7" t="s">
-        <v>315</v>
+        <v>289</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D272" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B274" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C274" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D274" s="8" t="s">
-        <v>310</v>
+        <v>193</v>
+      </c>
+      <c r="B274" s="9"/>
+      <c r="C274" s="9"/>
+      <c r="D274" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
       <c r="D275" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
       <c r="D276" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
-      <c r="D277" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E277" s="8" t="s">
-        <v>310</v>
+      <c r="D277" s="9"/>
+      <c r="E277" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
-      <c r="D278" s="9"/>
-      <c r="E278" s="7" t="s">
-        <v>315</v>
+      <c r="D278" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E278" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="B279" s="9"/>
-      <c r="C279" s="9"/>
-      <c r="D279" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E279" s="8" t="s">
-        <v>310</v>
+      <c r="C279" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D279" s="9"/>
+      <c r="E279" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="B280" s="9"/>
-      <c r="C280" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="D280" s="9"/>
-      <c r="E280" s="7" t="s">
-        <v>315</v>
+      <c r="C280" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D280" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E280" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="B281" s="9"/>
-      <c r="C281" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D281" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E281" s="8" t="s">
-        <v>310</v>
+      <c r="C281" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D281" s="9"/>
+      <c r="E281" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B282" s="9"/>
       <c r="C282" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D282" s="9"/>
       <c r="E282" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="B283" s="9"/>
-      <c r="C283" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="D283" s="9"/>
-      <c r="E283" s="7" t="s">
-        <v>315</v>
+      <c r="C283" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D283" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E283" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>263</v>
+        <v>57</v>
       </c>
       <c r="B284" s="9"/>
-      <c r="C284" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D284" s="8" t="s">
-        <v>310</v>
+      <c r="C284" s="9"/>
+      <c r="D284" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="B285" s="9"/>
-      <c r="C285" s="9"/>
-      <c r="D285" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E285" s="8" t="s">
-        <v>310</v>
+      <c r="C285" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D285" s="9"/>
+      <c r="E285" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="B286" s="9"/>
       <c r="C286" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D286" s="9"/>
       <c r="E286" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B287" s="9"/>
-      <c r="C287" s="11" t="s">
-        <v>314</v>
-      </c>
+      <c r="C287" s="9"/>
       <c r="D287" s="9"/>
       <c r="E287" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
       <c r="D288" s="9"/>
       <c r="E288" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
-      <c r="D289" s="9"/>
-      <c r="E289" s="7" t="s">
-        <v>315</v>
+      <c r="D289" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E289" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="B290" s="9"/>
-      <c r="C290" s="9"/>
-      <c r="D290" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E290" s="8" t="s">
-        <v>310</v>
+      <c r="C290" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D290" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="E290" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B291" s="9"/>
-      <c r="C291" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D291" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E291" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B292" s="5"/>
-      <c r="C292" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D292" s="5"/>
-      <c r="E292" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
-        <v>211</v>
+        <v>181</v>
+      </c>
+      <c r="B291" s="5"/>
+      <c r="C291" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D291" s="5"/>
+      <c r="E291" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A296" s="14" t="s">
-        <v>293</v>
-      </c>
+      <c r="A296" s="15"/>
       <c r="B296" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C296" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="D296" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A297" s="15"/>
-      <c r="B297" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B297" s="9"/>
+      <c r="C297" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D297" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B298" s="9"/>
-      <c r="C298" s="16" t="s">
-        <v>295</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C298" s="16"/>
       <c r="D298" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C299" s="16"/>
       <c r="D299" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C300" s="16"/>
       <c r="D300" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B301" s="10" t="s">
-        <v>312</v>
+        <v>286</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="C301" s="16"/>
-      <c r="D301" s="7" t="s">
-        <v>315</v>
+      <c r="D301" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B302" s="7" t="s">
-        <v>315</v>
+        <v>38</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="C302" s="16"/>
-      <c r="D302" s="8" t="s">
-        <v>310</v>
+      <c r="D302" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B303" s="11" t="s">
-        <v>314</v>
+        <v>288</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="C303" s="16"/>
-      <c r="D303" s="7" t="s">
-        <v>315</v>
+      <c r="D303" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B304" s="7" t="s">
-        <v>315</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B304" s="9"/>
       <c r="C304" s="16"/>
-      <c r="D304" s="8" t="s">
-        <v>310</v>
+      <c r="D304" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B305" s="9"/>
+        <v>289</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C305" s="16"/>
-      <c r="D305" s="7" t="s">
-        <v>315</v>
+      <c r="D305" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C306" s="16"/>
       <c r="D306" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B307" s="7" t="s">
-        <v>315</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B307" s="9"/>
       <c r="C307" s="16"/>
-      <c r="D307" s="8" t="s">
-        <v>310</v>
+      <c r="D307" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="B308" s="9"/>
       <c r="C308" s="16"/>
       <c r="D308" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B309" s="9"/>
       <c r="C309" s="16"/>
       <c r="D309" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B310" s="9"/>
       <c r="C310" s="16"/>
       <c r="D310" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="B311" s="9"/>
       <c r="C311" s="16"/>
       <c r="D311" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="B312" s="9"/>
       <c r="C312" s="16"/>
       <c r="D312" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B313" s="9"/>
       <c r="C313" s="16"/>
       <c r="D313" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="B314" s="9"/>
       <c r="C314" s="16"/>
       <c r="D314" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B315" s="9"/>
-      <c r="C315" s="16"/>
-      <c r="D315" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A318" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A319" s="15"/>
+      <c r="B319" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A319" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A320" s="15"/>
-      <c r="B320" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>184</v>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B320" s="9"/>
+      <c r="C320" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D320" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B321" s="9"/>
       <c r="C321" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D321" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B322" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="B322" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C322" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D322" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D323" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B325" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="D325" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B326" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C326" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D326" s="8" t="s">
-        <v>310</v>
+        <v>38</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C326" s="9"/>
+      <c r="D326" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B327" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C327" s="9"/>
-      <c r="D327" s="7" t="s">
-        <v>315</v>
+        <v>288</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D327" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B328" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C328" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D328" s="8" t="s">
-        <v>310</v>
+        <v>55</v>
+      </c>
+      <c r="B328" s="9"/>
+      <c r="C328" s="9"/>
+      <c r="D328" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B329" s="9"/>
-      <c r="C329" s="9"/>
-      <c r="D329" s="7" t="s">
-        <v>315</v>
+        <v>289</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D329" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B331" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C331" s="8" t="s">
-        <v>310</v>
+        <v>193</v>
+      </c>
+      <c r="B331" s="9"/>
+      <c r="C331" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D331" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="B332" s="9"/>
-      <c r="C332" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D332" s="8" t="s">
-        <v>310</v>
+      <c r="C332" s="9"/>
+      <c r="D332" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
       <c r="D333" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
       <c r="D334" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="B335" s="9"/>
-      <c r="C335" s="9"/>
-      <c r="D335" s="7" t="s">
-        <v>315</v>
+      <c r="C335" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D335" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="B336" s="9"/>
-      <c r="C336" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D336" s="13" t="s">
-        <v>310</v>
+      <c r="C336" s="9"/>
+      <c r="D336" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="B337" s="9"/>
-      <c r="C337" s="9"/>
-      <c r="D337" s="7" t="s">
-        <v>315</v>
+      <c r="C337" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D337" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="B338" s="9"/>
-      <c r="C338" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D338" s="8" t="s">
-        <v>310</v>
+      <c r="C338" s="9"/>
+      <c r="D338" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
       <c r="D339" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="B340" s="9"/>
-      <c r="C340" s="9"/>
-      <c r="D340" s="7" t="s">
-        <v>315</v>
+      <c r="C340" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D340" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -5464,32 +5404,34 @@
       </c>
       <c r="B341" s="9"/>
       <c r="C341" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="B342" s="9"/>
-      <c r="C342" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D342" s="8" t="s">
-        <v>310</v>
+      <c r="C342" s="9"/>
+      <c r="D342" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B343" s="9"/>
-      <c r="C343" s="9"/>
-      <c r="D343" s="7" t="s">
-        <v>315</v>
+        <v>298</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D343" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -5497,27 +5439,23 @@
         <v>299</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C344" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B345" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C345" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D345" s="8" t="s">
-        <v>310</v>
+        <v>188</v>
+      </c>
+      <c r="B345" s="9"/>
+      <c r="C345" s="9"/>
+      <c r="D345" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -5525,1346 +5463,1347 @@
         <v>189</v>
       </c>
       <c r="B346" s="9"/>
-      <c r="C346" s="9"/>
-      <c r="D346" s="7" t="s">
-        <v>315</v>
+      <c r="C346" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D346" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="B347" s="9"/>
       <c r="C347" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>223</v>
+        <v>63</v>
       </c>
       <c r="B348" s="9"/>
-      <c r="C348" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D348" s="8" t="s">
-        <v>310</v>
+      <c r="C348" s="9"/>
+      <c r="D348" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B349" s="9"/>
-      <c r="C349" s="9"/>
-      <c r="D349" s="7" t="s">
-        <v>315</v>
+        <v>300</v>
+      </c>
+      <c r="B349" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D349" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B350" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C350" s="8" t="s">
-        <v>310</v>
+        <v>206</v>
+      </c>
+      <c r="B350" s="9"/>
+      <c r="C350" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B351" s="9"/>
       <c r="C351" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B352" s="9"/>
-      <c r="C352" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D352" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="355" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A355" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
     <row r="356" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="14" t="s">
-        <v>293</v>
-      </c>
+      <c r="A356" s="15"/>
       <c r="B356" s="1" t="s">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A357" s="15"/>
-      <c r="B357" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B357" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C357" s="9"/>
+      <c r="D357" s="9"/>
+      <c r="E357" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B358" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C358" s="9"/>
-      <c r="D358" s="9"/>
-      <c r="E358" s="7" t="s">
-        <v>315</v>
+        <v>191</v>
+      </c>
+      <c r="B358" s="9"/>
+      <c r="C358" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D358" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E358" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="B359" s="9"/>
-      <c r="C359" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D359" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E359" s="8" t="s">
-        <v>310</v>
+      <c r="C359" s="9"/>
+      <c r="D359" s="9"/>
+      <c r="E359" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
       <c r="E360" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
-      <c r="D361" s="9"/>
-      <c r="E361" s="7" t="s">
-        <v>315</v>
+      <c r="D361" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
-      <c r="D362" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E362" s="8" t="s">
-        <v>310</v>
+      <c r="D362" s="9"/>
+      <c r="E362" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
-      <c r="D363" s="9"/>
-      <c r="E363" s="7" t="s">
-        <v>315</v>
+      <c r="D363" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E363" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>215</v>
+        <v>2</v>
       </c>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
       <c r="D364" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E364" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
       <c r="D365" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E365" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
-      <c r="D366" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E366" s="8" t="s">
-        <v>310</v>
+      <c r="D366" s="9"/>
+      <c r="E366" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
       <c r="E367" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
-      <c r="D368" s="9"/>
-      <c r="E368" s="7" t="s">
-        <v>315</v>
+      <c r="D368" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E368" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
-      <c r="D369" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E369" s="8" t="s">
-        <v>310</v>
+      <c r="D369" s="9"/>
+      <c r="E369" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
       <c r="E370" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
-      <c r="D371" s="9"/>
-      <c r="E371" s="7" t="s">
-        <v>315</v>
+      <c r="D371" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E371" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
       <c r="D372" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E372" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
-      <c r="D373" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E373" s="8" t="s">
-        <v>310</v>
+      <c r="D373" s="9"/>
+      <c r="E373" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
-      <c r="D374" s="9"/>
-      <c r="E374" s="7" t="s">
-        <v>315</v>
+      <c r="D374" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E374" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
       <c r="D375" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E375" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
-      <c r="D376" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E376" s="8" t="s">
-        <v>310</v>
+      <c r="D376" s="9"/>
+      <c r="E376" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B377" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="B377" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
       <c r="E377" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C378" s="9"/>
-      <c r="D378" s="9"/>
-      <c r="E378" s="7" t="s">
-        <v>315</v>
+      <c r="D378" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E378" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C379" s="9"/>
       <c r="D379" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E379" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C380" s="9"/>
-      <c r="D380" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E380" s="8" t="s">
-        <v>310</v>
+      <c r="D380" s="9"/>
+      <c r="E380" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B381" s="11" t="s">
-        <v>314</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B381" s="9"/>
       <c r="C381" s="9"/>
       <c r="D381" s="9"/>
       <c r="E381" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
-      <c r="D382" s="9"/>
-      <c r="E382" s="7" t="s">
-        <v>315</v>
+      <c r="D382" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E382" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
-      <c r="D383" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E383" s="8" t="s">
-        <v>310</v>
+      <c r="D383" s="9"/>
+      <c r="E383" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B384" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="B384" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C384" s="9"/>
       <c r="D384" s="9"/>
       <c r="E384" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C385" s="9"/>
       <c r="D385" s="9"/>
       <c r="E385" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C386" s="9"/>
       <c r="D386" s="9"/>
       <c r="E386" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B387" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C387" s="9"/>
-      <c r="D387" s="9"/>
-      <c r="E387" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D387" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E387" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B388" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C388" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D388" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E388" s="8" t="s">
-        <v>310</v>
+        <v>38</v>
+      </c>
+      <c r="B388" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C388" s="9"/>
+      <c r="D388" s="9"/>
+      <c r="E388" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B389" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C389" s="9"/>
-      <c r="D389" s="9"/>
-      <c r="E389" s="7" t="s">
-        <v>315</v>
+        <v>288</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E389" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B390" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C390" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D390" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E390" s="8" t="s">
-        <v>310</v>
+        <v>44</v>
+      </c>
+      <c r="B390" s="9"/>
+      <c r="C390" s="9"/>
+      <c r="D390" s="9"/>
+      <c r="E390" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B391" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="B391" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C391" s="9"/>
       <c r="D391" s="9"/>
       <c r="E391" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B392" s="11" t="s">
-        <v>314</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B392" s="9"/>
       <c r="C392" s="9"/>
       <c r="D392" s="9"/>
       <c r="E392" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
-      <c r="D393" s="9"/>
-      <c r="E393" s="7" t="s">
-        <v>315</v>
+      <c r="D393" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E393" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B394" s="9"/>
-      <c r="C394" s="9"/>
-      <c r="D394" s="7" t="s">
-        <v>315</v>
+        <v>289</v>
+      </c>
+      <c r="B394" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D394" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E394" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D395" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E395" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B396" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C396" s="8" t="s">
-        <v>310</v>
+        <v>193</v>
+      </c>
+      <c r="B396" s="9"/>
+      <c r="C396" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D396" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E396" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="B397" s="9"/>
-      <c r="C397" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D397" s="8" t="s">
-        <v>310</v>
+      <c r="C397" s="9"/>
+      <c r="D397" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E397" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
-      <c r="D398" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E398" s="8" t="s">
-        <v>310</v>
+      <c r="D398" s="9"/>
+      <c r="E398" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
-      <c r="D399" s="9"/>
-      <c r="E399" s="7" t="s">
-        <v>315</v>
+      <c r="D399" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
       <c r="D400" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E400" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B401" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B401" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C401" s="9"/>
-      <c r="D401" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E401" s="8" t="s">
-        <v>310</v>
+      <c r="D401" s="9"/>
+      <c r="E401" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B402" s="11" t="s">
-        <v>314</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B402" s="9"/>
       <c r="C402" s="9"/>
       <c r="D402" s="9"/>
       <c r="E402" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
-      <c r="D403" s="9"/>
-      <c r="E403" s="7" t="s">
-        <v>315</v>
+      <c r="D403" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E403" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
       <c r="D404" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E404" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
       <c r="D405" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E405" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
       <c r="D406" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E406" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B407" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="B407" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C407" s="9"/>
       <c r="D407" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E407" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B408" s="11" t="s">
-        <v>314</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B408" s="9"/>
       <c r="C408" s="9"/>
-      <c r="D408" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E408" s="8" t="s">
-        <v>310</v>
+      <c r="D408" s="9"/>
+      <c r="E408" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B409" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="B409" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C409" s="9"/>
       <c r="D409" s="9"/>
       <c r="E409" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B410" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C410" s="9"/>
       <c r="D410" s="9"/>
       <c r="E410" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B411" s="11" t="s">
-        <v>314</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B411" s="9"/>
       <c r="C411" s="9"/>
       <c r="D411" s="9"/>
       <c r="E411" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B412" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="B412" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C412" s="9"/>
       <c r="D412" s="9"/>
       <c r="E412" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B413" s="11" t="s">
-        <v>314</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B413" s="9"/>
       <c r="C413" s="9"/>
       <c r="D413" s="9"/>
       <c r="E413" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
       <c r="D414" s="9"/>
       <c r="E414" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
-      <c r="D415" s="9"/>
-      <c r="E415" s="7" t="s">
-        <v>315</v>
+      <c r="D415" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E415" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
-      <c r="D416" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E416" s="8" t="s">
-        <v>310</v>
+      <c r="D416" s="9"/>
+      <c r="E416" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
       <c r="D417" s="9"/>
       <c r="E417" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
       <c r="D418" s="9"/>
       <c r="E418" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
       <c r="D419" s="9"/>
       <c r="E419" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
       <c r="D420" s="9"/>
       <c r="E420" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
       <c r="D421" s="9"/>
       <c r="E421" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B422" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="B422" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C422" s="9"/>
-      <c r="D422" s="9"/>
-      <c r="E422" s="7" t="s">
-        <v>315</v>
+      <c r="D422" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E422" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B423" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B423" s="11" t="s">
         <v>312</v>
       </c>
       <c r="C423" s="9"/>
       <c r="D423" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E423" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B424" s="11" t="s">
-        <v>314</v>
+        <v>64</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="C424" s="9"/>
-      <c r="D424" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E424" s="8" t="s">
-        <v>310</v>
+      <c r="D424" s="9"/>
+      <c r="E424" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B425" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B425" s="11" t="s">
         <v>312</v>
       </c>
       <c r="C425" s="9"/>
       <c r="D425" s="9"/>
       <c r="E425" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B426" s="11" t="s">
-        <v>314</v>
+        <v>71</v>
+      </c>
+      <c r="B426" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="C426" s="9"/>
       <c r="D426" s="9"/>
       <c r="E426" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B427" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B427" s="11" t="s">
         <v>312</v>
       </c>
       <c r="C427" s="9"/>
       <c r="D427" s="9"/>
       <c r="E427" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B428" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C428" s="9"/>
-      <c r="D428" s="9"/>
-      <c r="E428" s="7" t="s">
-        <v>315</v>
+        <v>206</v>
+      </c>
+      <c r="B428" s="9"/>
+      <c r="C428" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D428" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E428" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="B429" s="9"/>
-      <c r="C429" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D429" s="8" t="s">
-        <v>310</v>
+      <c r="C429" s="9"/>
+      <c r="D429" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E429" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
-      <c r="D430" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E430" s="8" t="s">
-        <v>310</v>
+      <c r="D430" s="9"/>
+      <c r="E430" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
       <c r="D431" s="9"/>
       <c r="E431" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
       <c r="D432" s="9"/>
       <c r="E432" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
       <c r="D433" s="9"/>
       <c r="E433" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
       <c r="D434" s="9"/>
       <c r="E434" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
-      <c r="D435" s="9"/>
-      <c r="E435" s="7" t="s">
-        <v>315</v>
+      <c r="D435" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E435" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
       <c r="D436" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E436" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B437" s="9"/>
+        <v>74</v>
+      </c>
+      <c r="B437" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C437" s="9"/>
-      <c r="D437" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E437" s="8" t="s">
-        <v>310</v>
+      <c r="D437" s="9"/>
+      <c r="E437" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
       <c r="D438" s="9"/>
       <c r="E438" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B439" s="9"/>
-      <c r="C439" s="9"/>
-      <c r="D439" s="9"/>
-      <c r="E439" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A442" s="2" t="s">
-        <v>225</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A442" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A443" s="14" t="s">
-        <v>293</v>
-      </c>
+      <c r="A443" s="15"/>
       <c r="B443" s="1" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A444" s="15"/>
-      <c r="B444" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B444" s="9"/>
+      <c r="C444" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="B445" s="9"/>
       <c r="C445" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
-        <v>229</v>
+        <v>86</v>
       </c>
       <c r="B446" s="9"/>
       <c r="C446" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="B447" s="9"/>
       <c r="C447" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B448" s="9"/>
-      <c r="C448" s="7" t="s">
-        <v>315</v>
+        <v>59</v>
+      </c>
+      <c r="B448" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C448" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C449" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B451" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C451" s="8" t="s">
-        <v>310</v>
+        <v>225</v>
+      </c>
+      <c r="B451" s="9"/>
+      <c r="C451" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B452" s="9"/>
-      <c r="C452" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
+      </c>
+      <c r="B452" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C452" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B453" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C453" s="8" t="s">
-        <v>310</v>
+        <v>38</v>
+      </c>
+      <c r="B453" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C453" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B454" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C454" s="7" t="s">
-        <v>315</v>
+        <v>288</v>
+      </c>
+      <c r="B454" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C454" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B455" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C455" s="8" t="s">
-        <v>310</v>
+        <v>55</v>
+      </c>
+      <c r="B455" s="9"/>
+      <c r="C455" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B456" s="9"/>
-      <c r="C456" s="7" t="s">
-        <v>315</v>
+        <v>289</v>
+      </c>
+      <c r="B456" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C456" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C457" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B458" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C458" s="8" t="s">
-        <v>310</v>
+        <v>193</v>
+      </c>
+      <c r="B458" s="9"/>
+      <c r="C458" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="B459" s="9"/>
       <c r="C459" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B460" s="9"/>
       <c r="C460" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="B461" s="9"/>
       <c r="C461" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -6873,7 +6812,7 @@
       </c>
       <c r="B462" s="9"/>
       <c r="C462" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -6882,16 +6821,16 @@
       </c>
       <c r="B463" s="9"/>
       <c r="C463" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="B464" s="9"/>
       <c r="C464" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -6900,7 +6839,7 @@
       </c>
       <c r="B465" s="9"/>
       <c r="C465" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -6909,7 +6848,7 @@
       </c>
       <c r="B466" s="9"/>
       <c r="C466" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -6918,16 +6857,16 @@
       </c>
       <c r="B467" s="9"/>
       <c r="C467" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="B468" s="9"/>
       <c r="C468" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -6936,7 +6875,7 @@
       </c>
       <c r="B469" s="9"/>
       <c r="C469" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -6945,7 +6884,7 @@
       </c>
       <c r="B470" s="9"/>
       <c r="C470" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -6954,7 +6893,7 @@
       </c>
       <c r="B471" s="9"/>
       <c r="C471" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -6963,43 +6902,43 @@
       </c>
       <c r="B472" s="9"/>
       <c r="C472" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="B473" s="9"/>
       <c r="C473" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="B474" s="9"/>
       <c r="C474" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="B475" s="9"/>
       <c r="C475" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="B476" s="9"/>
       <c r="C476" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -7008,16 +6947,16 @@
       </c>
       <c r="B477" s="9"/>
       <c r="C477" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="B478" s="9"/>
       <c r="C478" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -7026,25 +6965,25 @@
       </c>
       <c r="B479" s="9"/>
       <c r="C479" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="B480" s="9"/>
       <c r="C480" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="B481" s="9"/>
       <c r="C481" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -7053,25 +6992,25 @@
       </c>
       <c r="B482" s="9"/>
       <c r="C482" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B483" s="9"/>
       <c r="C483" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="B484" s="9"/>
       <c r="C484" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -7080,7 +7019,7 @@
       </c>
       <c r="B485" s="9"/>
       <c r="C485" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -7089,7 +7028,7 @@
       </c>
       <c r="B486" s="9"/>
       <c r="C486" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -7098,7 +7037,7 @@
       </c>
       <c r="B487" s="9"/>
       <c r="C487" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -7107,7 +7046,7 @@
       </c>
       <c r="B488" s="9"/>
       <c r="C488" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -7116,54 +7055,44 @@
       </c>
       <c r="B489" s="9"/>
       <c r="C489" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B490" s="9"/>
-      <c r="C490" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:E81">
-    <sortCondition ref="A9:A81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:E80">
+    <sortCondition ref="A9:A80"/>
   </sortState>
-  <mergeCells count="18">
-    <mergeCell ref="C298:C315"/>
+  <mergeCells count="17">
+    <mergeCell ref="C297:C314"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="A84:A85"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A319:A320"/>
-    <mergeCell ref="A356:A357"/>
-    <mergeCell ref="A443:A444"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A295:A296"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;F &amp;D</oddFooter>
   </headerFooter>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="83" max="16383" man="1"/>
-    <brk id="162" max="16383" man="1"/>
-    <brk id="221" max="16383" man="1"/>
-    <brk id="294" max="16383" man="1"/>
-    <brk id="354" max="16383" man="1"/>
-    <brk id="441" max="16383" man="1"/>
+    <brk id="82" max="16383" man="1"/>
+    <brk id="161" max="16383" man="1"/>
+    <brk id="220" max="16383" man="1"/>
+    <brk id="293" max="16383" man="1"/>
+    <brk id="353" max="16383" man="1"/>
+    <brk id="440" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/InstallerContent/ASCOMInterfaceRevisions.xlsx
+++ b/InstallerContent/ASCOMInterfaceRevisions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ASCOMPlatform\InstallerContent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6CE6AE-9C36-4CB4-A867-82A42BF31249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D426E2BC-1220-4B98-844D-F6207FC9C8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{C77C0BB1-9FCB-4A82-8AED-44FFC5395220}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="315">
   <si>
     <t>Telescope</t>
   </si>
@@ -1224,14 +1224,14 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1595,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCFDDAB-B80A-4B5D-BA40-62EFE29ED36B}">
   <dimension ref="A1:F489"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A431" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199:B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1649,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1669,7 +1669,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>83</v>
       </c>
@@ -1984,7 +1984,9 @@
       <c r="A31" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C31" s="8" t="s">
         <v>308</v>
       </c>
@@ -2335,7 +2337,9 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="E55" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="F55" s="8" t="s">
         <v>308</v>
       </c>
@@ -2668,7 +2672,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2679,7 +2683,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="1" t="s">
         <v>247</v>
       </c>
@@ -2965,7 +2969,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -2979,7 +2983,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
+      <c r="A118" s="16"/>
       <c r="B118" s="1" t="s">
         <v>121</v>
       </c>
@@ -3232,7 +3236,9 @@
       <c r="A141" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B141" s="9"/>
+      <c r="B141" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C141" s="8" t="s">
         <v>308</v>
       </c>
@@ -3244,7 +3250,9 @@
       <c r="A142" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B142" s="9"/>
+      <c r="B142" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C142" s="8" t="s">
         <v>308</v>
       </c>
@@ -3257,7 +3265,9 @@
         <v>193</v>
       </c>
       <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
+      <c r="C143" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="D143" s="8" t="s">
         <v>308</v>
       </c>
@@ -3428,7 +3438,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -3442,7 +3452,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
+      <c r="A164" s="16"/>
       <c r="B164" s="1" t="s">
         <v>150</v>
       </c>
@@ -3537,7 +3547,9 @@
       <c r="A171" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B171" s="9"/>
+      <c r="B171" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C171" s="8" t="s">
         <v>308</v>
       </c>
@@ -3699,7 +3711,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="14" t="s">
+      <c r="A188" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -3716,7 +3728,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="15"/>
+      <c r="A189" s="16"/>
       <c r="B189" s="1" t="s">
         <v>157</v>
       </c>
@@ -3803,7 +3815,9 @@
       <c r="A195" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B195" s="9"/>
+      <c r="B195" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C195" s="8" t="s">
         <v>308</v>
       </c>
@@ -3833,7 +3847,9 @@
       <c r="A197" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B197" s="9"/>
+      <c r="B197" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C197" s="8" t="s">
         <v>308</v>
       </c>
@@ -3861,7 +3877,9 @@
       <c r="A199" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B199" s="9"/>
+      <c r="B199" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C199" s="8" t="s">
         <v>308</v>
       </c>
@@ -3876,7 +3894,9 @@
       <c r="A200" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B200" s="9"/>
+      <c r="B200" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C200" s="8" t="s">
         <v>308</v>
       </c>
@@ -4111,7 +4131,7 @@
       </c>
     </row>
     <row r="222" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="14" t="s">
+      <c r="A222" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -4122,7 +4142,7 @@
       </c>
     </row>
     <row r="223" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="15"/>
+      <c r="A223" s="16"/>
       <c r="B223" s="1" t="s">
         <v>265</v>
       </c>
@@ -4458,7 +4478,7 @@
       </c>
     </row>
     <row r="261" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="14" t="s">
+      <c r="A261" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B261" s="1" t="s">
@@ -4475,7 +4495,7 @@
       </c>
     </row>
     <row r="262" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="15"/>
+      <c r="A262" s="16"/>
       <c r="B262" s="1" t="s">
         <v>175</v>
       </c>
@@ -4894,7 +4914,7 @@
       </c>
     </row>
     <row r="295" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A295" s="14" t="s">
+      <c r="A295" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B295" s="1" t="s">
@@ -4906,7 +4926,7 @@
       </c>
     </row>
     <row r="296" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A296" s="15"/>
+      <c r="A296" s="16"/>
       <c r="B296" s="1" t="s">
         <v>208</v>
       </c>
@@ -4922,7 +4942,7 @@
         <v>191</v>
       </c>
       <c r="B297" s="9"/>
-      <c r="C297" s="16" t="s">
+      <c r="C297" s="14" t="s">
         <v>294</v>
       </c>
       <c r="D297" s="7" t="s">
@@ -4936,7 +4956,7 @@
       <c r="B298" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C298" s="16"/>
+      <c r="C298" s="14"/>
       <c r="D298" s="7" t="s">
         <v>313</v>
       </c>
@@ -4948,7 +4968,7 @@
       <c r="B299" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C299" s="16"/>
+      <c r="C299" s="14"/>
       <c r="D299" s="7" t="s">
         <v>313</v>
       </c>
@@ -4960,7 +4980,7 @@
       <c r="B300" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C300" s="16"/>
+      <c r="C300" s="14"/>
       <c r="D300" s="7" t="s">
         <v>313</v>
       </c>
@@ -4972,7 +4992,7 @@
       <c r="B301" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C301" s="16"/>
+      <c r="C301" s="14"/>
       <c r="D301" s="8" t="s">
         <v>308</v>
       </c>
@@ -4984,7 +5004,7 @@
       <c r="B302" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C302" s="16"/>
+      <c r="C302" s="14"/>
       <c r="D302" s="7" t="s">
         <v>313</v>
       </c>
@@ -4996,7 +5016,7 @@
       <c r="B303" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C303" s="16"/>
+      <c r="C303" s="14"/>
       <c r="D303" s="8" t="s">
         <v>308</v>
       </c>
@@ -5006,7 +5026,7 @@
         <v>55</v>
       </c>
       <c r="B304" s="9"/>
-      <c r="C304" s="16"/>
+      <c r="C304" s="14"/>
       <c r="D304" s="7" t="s">
         <v>313</v>
       </c>
@@ -5018,7 +5038,7 @@
       <c r="B305" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C305" s="16"/>
+      <c r="C305" s="14"/>
       <c r="D305" s="8" t="s">
         <v>308</v>
       </c>
@@ -5030,7 +5050,7 @@
       <c r="B306" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C306" s="16"/>
+      <c r="C306" s="14"/>
       <c r="D306" s="8" t="s">
         <v>308</v>
       </c>
@@ -5040,7 +5060,7 @@
         <v>193</v>
       </c>
       <c r="B307" s="9"/>
-      <c r="C307" s="16"/>
+      <c r="C307" s="14"/>
       <c r="D307" s="7" t="s">
         <v>313</v>
       </c>
@@ -5050,7 +5070,7 @@
         <v>56</v>
       </c>
       <c r="B308" s="9"/>
-      <c r="C308" s="16"/>
+      <c r="C308" s="14"/>
       <c r="D308" s="7" t="s">
         <v>313</v>
       </c>
@@ -5060,7 +5080,7 @@
         <v>11</v>
       </c>
       <c r="B309" s="9"/>
-      <c r="C309" s="16"/>
+      <c r="C309" s="14"/>
       <c r="D309" s="7" t="s">
         <v>313</v>
       </c>
@@ -5070,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="B310" s="9"/>
-      <c r="C310" s="16"/>
+      <c r="C310" s="14"/>
       <c r="D310" s="7" t="s">
         <v>313</v>
       </c>
@@ -5080,7 +5100,7 @@
         <v>211</v>
       </c>
       <c r="B311" s="9"/>
-      <c r="C311" s="16"/>
+      <c r="C311" s="14"/>
       <c r="D311" s="7" t="s">
         <v>313</v>
       </c>
@@ -5090,7 +5110,7 @@
         <v>57</v>
       </c>
       <c r="B312" s="9"/>
-      <c r="C312" s="16"/>
+      <c r="C312" s="14"/>
       <c r="D312" s="7" t="s">
         <v>313</v>
       </c>
@@ -5100,7 +5120,7 @@
         <v>63</v>
       </c>
       <c r="B313" s="9"/>
-      <c r="C313" s="16"/>
+      <c r="C313" s="14"/>
       <c r="D313" s="7" t="s">
         <v>313</v>
       </c>
@@ -5110,7 +5130,7 @@
         <v>206</v>
       </c>
       <c r="B314" s="9"/>
-      <c r="C314" s="16"/>
+      <c r="C314" s="14"/>
       <c r="D314" s="7" t="s">
         <v>313</v>
       </c>
@@ -5121,7 +5141,7 @@
       </c>
     </row>
     <row r="318" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A318" s="14" t="s">
+      <c r="A318" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B318" s="1" t="s">
@@ -5135,7 +5155,7 @@
       </c>
     </row>
     <row r="319" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A319" s="15"/>
+      <c r="A319" s="16"/>
       <c r="B319" s="1" t="s">
         <v>185</v>
       </c>
@@ -5536,7 +5556,7 @@
       </c>
     </row>
     <row r="355" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A355" s="14" t="s">
+      <c r="A355" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B355" s="1" t="s">
@@ -5553,7 +5573,7 @@
       </c>
     </row>
     <row r="356" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="15"/>
+      <c r="A356" s="16"/>
       <c r="B356" s="1" t="s">
         <v>79</v>
       </c>
@@ -6609,7 +6629,7 @@
       </c>
     </row>
     <row r="442" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A442" s="14" t="s">
+      <c r="A442" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B442" s="1" t="s">
@@ -6620,7 +6640,7 @@
       </c>
     </row>
     <row r="443" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A443" s="15"/>
+      <c r="A443" s="16"/>
       <c r="B443" s="1" t="s">
         <v>223</v>
       </c>
@@ -7063,6 +7083,13 @@
     <sortCondition ref="A9:A80"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="A355:A356"/>
+    <mergeCell ref="A442:A443"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="A295:A296"/>
     <mergeCell ref="C297:C314"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A84:A85"/>
@@ -7073,13 +7100,6 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="A117:A118"/>
     <mergeCell ref="A163:A164"/>
-    <mergeCell ref="A318:A319"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="A295:A296"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/InstallerContent/ASCOMInterfaceRevisions.xlsx
+++ b/InstallerContent/ASCOMInterfaceRevisions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ASCOMPlatform\InstallerContent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D426E2BC-1220-4B98-844D-F6207FC9C8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5CAF4C-0C49-4DAA-A783-C369B071BB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{C77C0BB1-9FCB-4A82-8AED-44FFC5395220}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="319">
   <si>
     <t>Telescope</t>
   </si>
@@ -981,6 +981,18 @@
   </si>
   <si>
     <t>Introduced but Deprecated</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>OffsetMax</t>
+  </si>
+  <si>
+    <t>OffsetMin</t>
+  </si>
+  <si>
+    <t>Offsets</t>
   </si>
 </sst>
 </file>
@@ -1224,14 +1236,14 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1593,10 +1605,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCFDDAB-B80A-4B5D-BA40-62EFE29ED36B}">
-  <dimension ref="A1:F489"/>
+  <dimension ref="A1:F493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199:B200"/>
+    <sheetView tabSelected="1" topLeftCell="A358" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A358" sqref="A358"/>
+      <selection pane="bottomLeft" activeCell="A361" sqref="A361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1663,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>292</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1669,7 +1683,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>83</v>
       </c>
@@ -2458,13 +2472,17 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>201</v>
+        <v>315</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="7" t="s">
-        <v>313</v>
+      <c r="C65" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>308</v>
@@ -2472,43 +2490,61 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="7" t="s">
-        <v>313</v>
+      <c r="C66" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>112</v>
+        <v>317</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="7" t="s">
-        <v>313</v>
+      <c r="C67" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="7" t="s">
-        <v>313</v>
+      <c r="C68" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -2522,97 +2558,99 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>308</v>
+      <c r="E70" s="9"/>
+      <c r="F70" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>308</v>
+      <c r="E71" s="9"/>
+      <c r="F71" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>308</v>
+      <c r="E72" s="9"/>
+      <c r="F72" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="7" t="s">
-        <v>313</v>
+      <c r="E73" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="7" t="s">
-        <v>313</v>
+      <c r="E74" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="7" t="s">
-        <v>313</v>
+      <c r="E75" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="7" t="s">
-        <v>313</v>
+      <c r="E76" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -2624,7 +2662,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -2636,176 +2674,180 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="B79" s="9"/>
-      <c r="C79" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>308</v>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
-      <c r="E80" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="E80" s="9"/>
+      <c r="F80" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
+    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="1" t="s">
+    <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>308</v>
+      <c r="B96" s="9"/>
+      <c r="C96" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>312</v>
+        <v>59</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>313</v>
@@ -2813,47 +2855,51 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>308</v>
+        <v>60</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>308</v>
+        <v>61</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="7" t="s">
-        <v>313</v>
+        <v>286</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C101" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>313</v>
@@ -2864,7 +2910,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>313</v>
@@ -2875,7 +2921,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="7" t="s">
@@ -2884,7 +2930,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="7" t="s">
@@ -2893,25 +2939,29 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="7" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="7" t="s">
-        <v>313</v>
+        <v>287</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="7" t="s">
@@ -2920,7 +2970,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>252</v>
+        <v>56</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="7" t="s">
@@ -2929,7 +2979,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="7" t="s">
@@ -2938,7 +2988,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="7" t="s">
@@ -2947,7 +2997,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="7" t="s">
@@ -2956,93 +3006,87 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114" s="9"/>
+      <c r="C114" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B115" s="9"/>
+      <c r="C115" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B116" s="9"/>
+      <c r="C116" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" s="9"/>
+      <c r="C117" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="15" t="s">
+    <row r="121" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
-      <c r="B118" s="1" t="s">
+    <row r="122" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
+      <c r="B122" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B120" s="9"/>
-      <c r="C120" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C123" s="9"/>
       <c r="D123" s="7" t="s">
         <v>313</v>
@@ -3050,17 +3094,19 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="7" t="s">
-        <v>313</v>
+      <c r="C124" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -3070,7 +3116,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -3080,7 +3126,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -3090,7 +3136,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -3100,7 +3146,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -3110,7 +3156,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -3120,7 +3166,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -3130,7 +3176,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -3140,7 +3186,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -3150,11 +3196,9 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>310</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="7" t="s">
         <v>313</v>
@@ -3162,11 +3206,9 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>310</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="7" t="s">
         <v>313</v>
@@ -3174,11 +3216,9 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>310</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="7" t="s">
         <v>313</v>
@@ -3186,24 +3226,20 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>308</v>
+        <v>143</v>
+      </c>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>312</v>
+        <v>59</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="7" t="s">
@@ -3212,21 +3248,23 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>308</v>
+        <v>60</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B140" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C140" s="9"/>
       <c r="D140" s="7" t="s">
         <v>313</v>
@@ -3234,7 +3272,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>313</v>
@@ -3248,25 +3286,23 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>308</v>
+        <v>135</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="B143" s="9"/>
-      <c r="C143" s="7" t="s">
-        <v>313</v>
+      <c r="C143" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>308</v>
@@ -3274,7 +3310,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -3284,37 +3320,47 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="7" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="7" t="s">
-        <v>313</v>
+        <v>287</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="7" t="s">
-        <v>313</v>
+      <c r="C147" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -3324,7 +3370,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -3334,7 +3380,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -3344,7 +3390,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -3354,7 +3400,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -3364,7 +3410,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -3374,7 +3420,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -3384,7 +3430,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -3394,7 +3440,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -3404,7 +3450,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -3414,17 +3460,17 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
-      <c r="D158" s="8" t="s">
-        <v>308</v>
+      <c r="D158" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -3432,100 +3478,84 @@
         <v>313</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="15" t="s">
+    <row r="167" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="16"/>
-      <c r="B164" s="1" t="s">
+    <row r="168" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="15"/>
+      <c r="B168" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B165" s="12"/>
-      <c r="C165" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D165" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>308</v>
+        <v>191</v>
+      </c>
+      <c r="B169" s="12"/>
+      <c r="C169" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>308</v>
@@ -3533,25 +3563,27 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="7" t="s">
-        <v>313</v>
+        <v>59</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>308</v>
+        <v>60</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>308</v>
@@ -3559,9 +3591,11 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B172" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C172" s="7" t="s">
         <v>313</v>
       </c>
@@ -3571,9 +3605,11 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B173" s="9"/>
+        <v>286</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C173" s="8" t="s">
         <v>308</v>
       </c>
@@ -3583,23 +3619,25 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B174" s="9"/>
-      <c r="C174" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>308</v>
+        <v>38</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C174" s="9"/>
+      <c r="D174" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B175" s="12"/>
-      <c r="C175" s="7" t="s">
-        <v>313</v>
+        <v>288</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>308</v>
@@ -3607,7 +3645,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B176" s="9"/>
       <c r="C176" s="7" t="s">
@@ -3619,11 +3657,11 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="B177" s="9"/>
-      <c r="C177" s="7" t="s">
-        <v>313</v>
+      <c r="C177" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>308</v>
@@ -3631,19 +3669,21 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="7" t="s">
-        <v>313</v>
+      <c r="C178" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B179" s="9"/>
+        <v>193</v>
+      </c>
+      <c r="B179" s="12"/>
       <c r="C179" s="7" t="s">
         <v>313</v>
       </c>
@@ -3653,7 +3693,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B180" s="9"/>
       <c r="C180" s="7" t="s">
@@ -3665,17 +3705,19 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="7" t="s">
-        <v>313</v>
+      <c r="C181" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -3685,17 +3727,19 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
-      <c r="D183" s="7" t="s">
-        <v>313</v>
+      <c r="C183" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="B184" s="9"/>
       <c r="C184" s="7" t="s">
@@ -3705,124 +3749,104 @@
         <v>308</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B188" s="9"/>
+      <c r="C188" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="15" t="s">
+    <row r="192" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="16"/>
-      <c r="B189" s="1" t="s">
+    <row r="193" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="15"/>
+      <c r="B193" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B190" s="9"/>
-      <c r="C190" s="9"/>
-      <c r="D190" s="9"/>
-      <c r="E190" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B191" s="12"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E191" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B192" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C192" s="12"/>
-      <c r="D192" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E192" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B193" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C193" s="12"/>
-      <c r="D193" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B194" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C194" s="12"/>
-      <c r="D194" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>308</v>
+        <v>159</v>
+      </c>
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>308</v>
+        <v>191</v>
+      </c>
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>308</v>
@@ -3830,12 +3854,12 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C196" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C196" s="12"/>
       <c r="D196" s="7" t="s">
         <v>313</v>
       </c>
@@ -3845,16 +3869,14 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>308</v>
+        <v>60</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C197" s="12"/>
+      <c r="D197" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>308</v>
@@ -3862,10 +3884,12 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C198" s="12"/>
       <c r="D198" s="7" t="s">
         <v>313</v>
       </c>
@@ -3875,7 +3899,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>313</v>
@@ -3892,16 +3916,14 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>308</v>
+        <v>38</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C200" s="9"/>
+      <c r="D200" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>308</v>
@@ -3909,12 +3931,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B201" s="12"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="7" t="s">
-        <v>313</v>
+        <v>288</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>308</v>
@@ -3922,7 +3948,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -3935,12 +3961,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
-      <c r="D203" s="7" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E203" s="8" t="s">
         <v>308</v>
@@ -3948,21 +3978,27 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9"/>
-      <c r="E204" s="7" t="s">
-        <v>313</v>
+        <v>287</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
+        <v>193</v>
+      </c>
+      <c r="B205" s="12"/>
+      <c r="C205" s="12"/>
       <c r="D205" s="7" t="s">
         <v>313</v>
       </c>
@@ -3972,35 +4008,33 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
-      <c r="D206" s="9"/>
-      <c r="E206" s="7" t="s">
-        <v>313</v>
+      <c r="D206" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B207" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>313</v>
+        <v>11</v>
+      </c>
+      <c r="B207" s="9"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -4011,23 +4045,23 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
-      <c r="E209" s="7" t="s">
-        <v>313</v>
+      <c r="D209" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B210" s="9"/>
-      <c r="C210" s="11" t="s">
-        <v>312</v>
-      </c>
+      <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="7" t="s">
         <v>313</v>
@@ -4035,20 +4069,24 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
-      <c r="D211" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E211" s="8" t="s">
-        <v>308</v>
+        <v>161</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -4059,7 +4097,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -4070,10 +4108,12 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B214" s="9"/>
-      <c r="C214" s="9"/>
+      <c r="C214" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="D214" s="9"/>
       <c r="E214" s="7" t="s">
         <v>313</v>
@@ -4081,7 +4121,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -4094,7 +4134,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -4105,7 +4145,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -4116,7 +4156,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -4125,108 +4165,110 @@
         <v>313</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B219" s="9"/>
+      <c r="C219" s="9"/>
+      <c r="D219" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B220" s="9"/>
+      <c r="C220" s="9"/>
+      <c r="D220" s="9"/>
+      <c r="E220" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B221" s="9"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B222" s="9"/>
+      <c r="C222" s="9"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="15" t="s">
+    <row r="226" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="16"/>
-      <c r="B223" s="1" t="s">
+    <row r="227" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="15"/>
+      <c r="B227" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B224" s="9"/>
-      <c r="C224" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B225" s="9"/>
-      <c r="C225" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B226" s="9"/>
-      <c r="C226" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B227" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B228" s="10" t="s">
-        <v>310</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B228" s="9"/>
       <c r="C228" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B229" s="10" t="s">
-        <v>310</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B229" s="9"/>
       <c r="C229" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>308</v>
+        <v>269</v>
+      </c>
+      <c r="B230" s="9"/>
+      <c r="C230" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B231" s="11" t="s">
-        <v>312</v>
+        <v>59</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>313</v>
@@ -4234,27 +4276,29 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>308</v>
+        <v>60</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B233" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C233" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>313</v>
@@ -4265,16 +4309,18 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B235" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C235" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>313</v>
@@ -4285,7 +4331,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="B237" s="9"/>
       <c r="C237" s="7" t="s">
@@ -4294,16 +4340,18 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B238" s="9"/>
-      <c r="C238" s="7" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="B239" s="9"/>
       <c r="C239" s="7" t="s">
@@ -4312,16 +4360,18 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B240" s="9"/>
-      <c r="C240" s="7" t="s">
-        <v>313</v>
+        <v>287</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="B241" s="9"/>
       <c r="C241" s="7" t="s">
@@ -4330,7 +4380,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B242" s="9"/>
       <c r="C242" s="7" t="s">
@@ -4339,7 +4389,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="B243" s="9"/>
       <c r="C243" s="7" t="s">
@@ -4348,7 +4398,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B244" s="9"/>
       <c r="C244" s="7" t="s">
@@ -4357,7 +4407,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>284</v>
+        <v>1</v>
       </c>
       <c r="B245" s="9"/>
       <c r="C245" s="7" t="s">
@@ -4366,7 +4416,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>282</v>
+        <v>57</v>
       </c>
       <c r="B246" s="9"/>
       <c r="C246" s="7" t="s">
@@ -4375,7 +4425,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>63</v>
+        <v>272</v>
       </c>
       <c r="B247" s="9"/>
       <c r="C247" s="7" t="s">
@@ -4384,7 +4434,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B248" s="9"/>
       <c r="C248" s="7" t="s">
@@ -4393,7 +4443,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B249" s="9"/>
       <c r="C249" s="7" t="s">
@@ -4402,7 +4452,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B250" s="9"/>
       <c r="C250" s="7" t="s">
@@ -4411,7 +4461,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>277</v>
+        <v>63</v>
       </c>
       <c r="B251" s="9"/>
       <c r="C251" s="7" t="s">
@@ -4420,7 +4470,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="B252" s="9"/>
       <c r="C252" s="7" t="s">
@@ -4429,7 +4479,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B253" s="9"/>
       <c r="C253" s="7" t="s">
@@ -4438,7 +4488,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B254" s="9"/>
       <c r="C254" s="7" t="s">
@@ -4447,7 +4497,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B255" s="9"/>
       <c r="C255" s="7" t="s">
@@ -4456,7 +4506,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="B256" s="9"/>
       <c r="C256" s="7" t="s">
@@ -4465,113 +4515,91 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B257" s="9"/>
       <c r="C257" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B258" s="9"/>
+      <c r="C258" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B259" s="9"/>
+      <c r="C259" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B260" s="9"/>
+      <c r="C260" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B261" s="9"/>
+      <c r="C261" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="15" t="s">
+    <row r="265" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B265" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E261" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="16"/>
-      <c r="B262" s="1" t="s">
+    <row r="266" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="15"/>
+      <c r="B266" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E262" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B263" s="9"/>
-      <c r="C263" s="9"/>
-      <c r="D263" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E263" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B264" s="9"/>
-      <c r="C264" s="9"/>
-      <c r="D264" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E264" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B265" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C265" s="9"/>
-      <c r="D265" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E265" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C266" s="9"/>
-      <c r="D266" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E266" s="8" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B267" s="10" t="s">
-        <v>310</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B267" s="9"/>
       <c r="C267" s="9"/>
       <c r="D267" s="7" t="s">
         <v>313</v>
@@ -4582,16 +4610,12 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C268" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D268" s="8" t="s">
-        <v>308</v>
+        <v>177</v>
+      </c>
+      <c r="B268" s="9"/>
+      <c r="C268" s="9"/>
+      <c r="D268" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E268" s="8" t="s">
         <v>308</v>
@@ -4599,29 +4623,29 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B269" s="11" t="s">
-        <v>312</v>
+        <v>59</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="C269" s="9"/>
-      <c r="D269" s="9"/>
-      <c r="E269" s="7" t="s">
-        <v>313</v>
+      <c r="D269" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E269" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D270" s="8" t="s">
-        <v>308</v>
+        <v>60</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C270" s="9"/>
+      <c r="D270" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E270" s="8" t="s">
         <v>308</v>
@@ -4629,9 +4653,11 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B271" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C271" s="9"/>
       <c r="D271" s="7" t="s">
         <v>313</v>
@@ -4642,7 +4668,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B272" s="7" t="s">
         <v>313</v>
@@ -4659,29 +4685,29 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C273" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D273" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E273" s="8" t="s">
-        <v>308</v>
+        <v>38</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C273" s="9"/>
+      <c r="D273" s="9"/>
+      <c r="E273" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B274" s="9"/>
-      <c r="C274" s="9"/>
-      <c r="D274" s="7" t="s">
-        <v>313</v>
+        <v>288</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D274" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E274" s="8" t="s">
         <v>308</v>
@@ -4689,7 +4715,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -4702,12 +4728,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B276" s="9"/>
-      <c r="C276" s="9"/>
-      <c r="D276" s="7" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D276" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E276" s="8" t="s">
         <v>308</v>
@@ -4715,18 +4745,24 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B277" s="9"/>
-      <c r="C277" s="9"/>
-      <c r="D277" s="9"/>
-      <c r="E277" s="7" t="s">
-        <v>313</v>
+        <v>287</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D277" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E277" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -4739,27 +4775,25 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="B279" s="9"/>
-      <c r="C279" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="D279" s="9"/>
-      <c r="E279" s="7" t="s">
-        <v>313</v>
+      <c r="C279" s="9"/>
+      <c r="D279" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="B280" s="9"/>
-      <c r="C280" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D280" s="8" t="s">
-        <v>308</v>
+      <c r="C280" s="9"/>
+      <c r="D280" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E280" s="8" t="s">
         <v>308</v>
@@ -4767,12 +4801,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B281" s="9"/>
-      <c r="C281" s="11" t="s">
-        <v>312</v>
-      </c>
+      <c r="C281" s="9"/>
       <c r="D281" s="9"/>
       <c r="E281" s="7" t="s">
         <v>313</v>
@@ -4780,40 +4812,40 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="B282" s="9"/>
-      <c r="C282" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="D282" s="9"/>
-      <c r="E282" s="7" t="s">
-        <v>313</v>
+      <c r="C282" s="9"/>
+      <c r="D282" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E282" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="B283" s="9"/>
-      <c r="C283" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D283" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E283" s="8" t="s">
-        <v>308</v>
+      <c r="C283" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D283" s="9"/>
+      <c r="E283" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>57</v>
+        <v>261</v>
       </c>
       <c r="B284" s="9"/>
-      <c r="C284" s="9"/>
-      <c r="D284" s="7" t="s">
-        <v>313</v>
+      <c r="C284" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D284" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E284" s="8" t="s">
         <v>308</v>
@@ -4821,7 +4853,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B285" s="9"/>
       <c r="C285" s="11" t="s">
@@ -4834,7 +4866,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B286" s="9"/>
       <c r="C286" s="11" t="s">
@@ -4847,384 +4879,384 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="B287" s="9"/>
-      <c r="C287" s="9"/>
-      <c r="D287" s="9"/>
-      <c r="E287" s="7" t="s">
-        <v>313</v>
+      <c r="C287" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E287" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
-      <c r="D288" s="9"/>
-      <c r="E288" s="7" t="s">
-        <v>313</v>
+      <c r="D288" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E288" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="B289" s="9"/>
-      <c r="C289" s="9"/>
-      <c r="D289" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E289" s="8" t="s">
-        <v>308</v>
+      <c r="C289" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D289" s="9"/>
+      <c r="E289" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="B290" s="9"/>
-      <c r="C290" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D290" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E290" s="13" t="s">
-        <v>308</v>
+      <c r="C290" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="D290" s="9"/>
+      <c r="E290" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B291" s="9"/>
+      <c r="C291" s="9"/>
+      <c r="D291" s="9"/>
+      <c r="E291" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B292" s="9"/>
+      <c r="C292" s="9"/>
+      <c r="D292" s="9"/>
+      <c r="E292" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B293" s="9"/>
+      <c r="C293" s="9"/>
+      <c r="D293" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E293" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B294" s="9"/>
+      <c r="C294" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D294" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E294" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B291" s="5"/>
-      <c r="C291" s="6" t="s">
+      <c r="B295" s="5"/>
+      <c r="C295" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D291" s="5"/>
-      <c r="E291" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
+      <c r="D295" s="5"/>
+      <c r="E295" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A295" s="15" t="s">
+    <row r="299" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A299" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="B299" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C295" s="1"/>
-      <c r="D295" s="1" t="s">
+      <c r="C299" s="1"/>
+      <c r="D299" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A296" s="16"/>
-      <c r="B296" s="1" t="s">
+    <row r="300" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A300" s="15"/>
+      <c r="B300" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="C300" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="D300" s="1" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B297" s="9"/>
-      <c r="C297" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="D297" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B298" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C298" s="14"/>
-      <c r="D298" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B299" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C299" s="14"/>
-      <c r="D299" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B300" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C300" s="14"/>
-      <c r="D300" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B301" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C301" s="14"/>
-      <c r="D301" s="8" t="s">
-        <v>308</v>
+        <v>191</v>
+      </c>
+      <c r="B301" s="9"/>
+      <c r="C301" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D301" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B302" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C302" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C302" s="16"/>
       <c r="D302" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B303" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C303" s="14"/>
-      <c r="D303" s="8" t="s">
-        <v>308</v>
+        <v>60</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C303" s="16"/>
+      <c r="D303" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B304" s="9"/>
-      <c r="C304" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C304" s="16"/>
       <c r="D304" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C305" s="14"/>
+      <c r="C305" s="16"/>
       <c r="D305" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B306" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C306" s="14"/>
-      <c r="D306" s="8" t="s">
-        <v>308</v>
+        <v>38</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C306" s="16"/>
+      <c r="D306" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B307" s="9"/>
-      <c r="C307" s="14"/>
-      <c r="D307" s="7" t="s">
-        <v>313</v>
+        <v>288</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C307" s="16"/>
+      <c r="D307" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B308" s="9"/>
-      <c r="C308" s="14"/>
+      <c r="C308" s="16"/>
       <c r="D308" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B309" s="9"/>
-      <c r="C309" s="14"/>
-      <c r="D309" s="7" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C309" s="16"/>
+      <c r="D309" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B310" s="9"/>
-      <c r="C310" s="14"/>
-      <c r="D310" s="7" t="s">
-        <v>313</v>
+        <v>287</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C310" s="16"/>
+      <c r="D310" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B311" s="9"/>
-      <c r="C311" s="14"/>
+      <c r="C311" s="16"/>
       <c r="D311" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B312" s="9"/>
-      <c r="C312" s="14"/>
+      <c r="C312" s="16"/>
       <c r="D312" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B313" s="9"/>
-      <c r="C313" s="14"/>
+      <c r="C313" s="16"/>
       <c r="D313" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B314" s="9"/>
+      <c r="C314" s="16"/>
+      <c r="D314" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B315" s="9"/>
+      <c r="C315" s="16"/>
+      <c r="D315" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B316" s="9"/>
+      <c r="C316" s="16"/>
+      <c r="D316" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B317" s="9"/>
+      <c r="C317" s="16"/>
+      <c r="D317" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B314" s="9"/>
-      <c r="C314" s="14"/>
-      <c r="D314" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
+      <c r="B318" s="9"/>
+      <c r="C318" s="16"/>
+      <c r="D318" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A318" s="15" t="s">
+    <row r="322" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A322" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B322" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="C322" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D318" s="1" t="s">
+      <c r="D322" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A319" s="16"/>
-      <c r="B319" s="1" t="s">
+    <row r="323" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A323" s="15"/>
+      <c r="B323" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="C323" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D319" s="1" t="s">
+      <c r="D323" s="1" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B320" s="9"/>
-      <c r="C320" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D320" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B321" s="9"/>
-      <c r="C321" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D321" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B322" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D322" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B323" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D323" s="8" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B324" s="10" t="s">
-        <v>310</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B324" s="9"/>
       <c r="C324" s="7" t="s">
         <v>313</v>
       </c>
@@ -5234,13 +5266,11 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B325" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C325" s="8" t="s">
-        <v>308</v>
+        <v>216</v>
+      </c>
+      <c r="B325" s="9"/>
+      <c r="C325" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D325" s="8" t="s">
         <v>308</v>
@@ -5248,25 +5278,27 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B326" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C326" s="9"/>
-      <c r="D326" s="7" t="s">
-        <v>313</v>
+        <v>59</v>
+      </c>
+      <c r="B326" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D326" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B327" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C327" s="8" t="s">
-        <v>308</v>
+        <v>60</v>
+      </c>
+      <c r="B327" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D327" s="8" t="s">
         <v>308</v>
@@ -5274,17 +5306,21 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B328" s="9"/>
-      <c r="C328" s="9"/>
-      <c r="D328" s="7" t="s">
-        <v>313</v>
+        <v>61</v>
+      </c>
+      <c r="B328" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D328" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B329" s="7" t="s">
         <v>313</v>
@@ -5298,25 +5334,25 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B330" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C330" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D330" s="8" t="s">
-        <v>308</v>
+        <v>38</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C330" s="9"/>
+      <c r="D330" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B331" s="9"/>
-      <c r="C331" s="7" t="s">
-        <v>313</v>
+        <v>288</v>
+      </c>
+      <c r="B331" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="D331" s="8" t="s">
         <v>308</v>
@@ -5324,7 +5360,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -5334,39 +5370,47 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B333" s="9"/>
-      <c r="C333" s="9"/>
-      <c r="D333" s="7" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D333" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B334" s="9"/>
-      <c r="C334" s="9"/>
-      <c r="D334" s="7" t="s">
-        <v>313</v>
+        <v>287</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D334" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="B335" s="9"/>
       <c r="C335" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D335" s="13" t="s">
+      <c r="D335" s="8" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -5376,19 +5420,17 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="B337" s="9"/>
-      <c r="C337" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D337" s="8" t="s">
-        <v>308</v>
+      <c r="C337" s="9"/>
+      <c r="D337" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -5398,29 +5440,29 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B339" s="9"/>
-      <c r="C339" s="9"/>
-      <c r="D339" s="7" t="s">
-        <v>313</v>
+      <c r="C339" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D339" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B340" s="9"/>
-      <c r="C340" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D340" s="8" t="s">
-        <v>308</v>
+      <c r="C340" s="9"/>
+      <c r="D340" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B341" s="9"/>
       <c r="C341" s="7" t="s">
@@ -5432,7 +5474,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -5442,27 +5484,21 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B343" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C343" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D343" s="8" t="s">
-        <v>308</v>
+        <v>190</v>
+      </c>
+      <c r="B343" s="9"/>
+      <c r="C343" s="9"/>
+      <c r="D343" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B344" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C344" s="8" t="s">
-        <v>308</v>
+        <v>219</v>
+      </c>
+      <c r="B344" s="9"/>
+      <c r="C344" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D344" s="8" t="s">
         <v>308</v>
@@ -5470,33 +5506,35 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="B345" s="9"/>
-      <c r="C345" s="9"/>
-      <c r="D345" s="7" t="s">
-        <v>313</v>
+      <c r="C345" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D345" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="B346" s="9"/>
-      <c r="C346" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D346" s="8" t="s">
-        <v>308</v>
+      <c r="C346" s="9"/>
+      <c r="D346" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B347" s="9"/>
-      <c r="C347" s="7" t="s">
-        <v>313</v>
+        <v>298</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="D347" s="8" t="s">
         <v>308</v>
@@ -5504,31 +5542,31 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B348" s="9"/>
-      <c r="C348" s="9"/>
-      <c r="D348" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
+      </c>
+      <c r="B348" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D348" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B349" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C349" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D349" s="8" t="s">
-        <v>308</v>
+        <v>188</v>
+      </c>
+      <c r="B349" s="9"/>
+      <c r="C349" s="9"/>
+      <c r="D349" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B350" s="9"/>
       <c r="C350" s="7" t="s">
@@ -5540,7 +5578,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B351" s="9"/>
       <c r="C351" s="7" t="s">
@@ -5550,146 +5588,144 @@
         <v>308</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B352" s="9"/>
+      <c r="C352" s="9"/>
+      <c r="D352" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D353" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B354" s="9"/>
+      <c r="C354" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D354" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B355" s="9"/>
+      <c r="C355" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D355" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A355" s="15" t="s">
+    <row r="359" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A359" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B359" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="C359" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="D359" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E355" s="1" t="s">
+      <c r="E359" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="16"/>
-      <c r="B356" s="1" t="s">
+    <row r="360" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A360" s="15"/>
+      <c r="B360" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="C360" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E356" s="1" t="s">
+      <c r="E360" s="1" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B357" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C357" s="9"/>
-      <c r="D357" s="9"/>
-      <c r="E357" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B358" s="9"/>
-      <c r="C358" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D358" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E358" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B359" s="9"/>
-      <c r="C359" s="9"/>
-      <c r="D359" s="9"/>
-      <c r="E359" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B360" s="9"/>
-      <c r="C360" s="9"/>
-      <c r="D360" s="9"/>
-      <c r="E360" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B361" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="B361" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C361" s="9"/>
-      <c r="D361" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E361" s="8" t="s">
-        <v>308</v>
+      <c r="D361" s="9"/>
+      <c r="E361" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="B362" s="9"/>
-      <c r="C362" s="9"/>
-      <c r="D362" s="9"/>
-      <c r="E362" s="7" t="s">
-        <v>313</v>
+      <c r="C362" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D362" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E362" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
-      <c r="D363" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E363" s="8" t="s">
-        <v>308</v>
+      <c r="D363" s="9"/>
+      <c r="E363" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
-      <c r="D364" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E364" s="8" t="s">
-        <v>308</v>
+      <c r="D364" s="9"/>
+      <c r="E364" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -5702,7 +5738,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -5713,18 +5749,20 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
-      <c r="D367" s="9"/>
-      <c r="E367" s="7" t="s">
-        <v>313</v>
+      <c r="D367" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E367" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -5737,18 +5775,20 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
-      <c r="D369" s="9"/>
-      <c r="E369" s="7" t="s">
-        <v>313</v>
+      <c r="D369" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E369" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -5759,20 +5799,18 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
-      <c r="D371" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E371" s="8" t="s">
-        <v>308</v>
+      <c r="D371" s="9"/>
+      <c r="E371" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -5785,7 +5823,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -5796,20 +5834,18 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
-      <c r="D374" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E374" s="8" t="s">
-        <v>308</v>
+      <c r="D374" s="9"/>
+      <c r="E374" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -5822,22 +5858,22 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
-      <c r="D376" s="9"/>
-      <c r="E376" s="7" t="s">
-        <v>313</v>
+      <c r="D376" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E376" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B377" s="11" t="s">
-        <v>312</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B377" s="9"/>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
       <c r="E377" s="7" t="s">
@@ -5846,11 +5882,9 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B378" s="11" t="s">
-        <v>312</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B378" s="9"/>
       <c r="C378" s="9"/>
       <c r="D378" s="7" t="s">
         <v>313</v>
@@ -5861,11 +5895,9 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B379" s="11" t="s">
-        <v>312</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B379" s="9"/>
       <c r="C379" s="9"/>
       <c r="D379" s="7" t="s">
         <v>313</v>
@@ -5876,11 +5908,9 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B380" s="11" t="s">
-        <v>312</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B380" s="9"/>
       <c r="C380" s="9"/>
       <c r="D380" s="9"/>
       <c r="E380" s="7" t="s">
@@ -5889,9 +5919,11 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B381" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C381" s="9"/>
       <c r="D381" s="9"/>
       <c r="E381" s="7" t="s">
@@ -5900,9 +5932,11 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B382" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="B382" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C382" s="9"/>
       <c r="D382" s="7" t="s">
         <v>313</v>
@@ -5913,21 +5947,25 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B383" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="B383" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C383" s="9"/>
-      <c r="D383" s="9"/>
-      <c r="E383" s="7" t="s">
-        <v>313</v>
+      <c r="D383" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B384" s="10" t="s">
-        <v>310</v>
+        <v>35</v>
+      </c>
+      <c r="B384" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="C384" s="9"/>
       <c r="D384" s="9"/>
@@ -5937,11 +5975,9 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B385" s="10" t="s">
-        <v>310</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B385" s="9"/>
       <c r="C385" s="9"/>
       <c r="D385" s="9"/>
       <c r="E385" s="7" t="s">
@@ -5950,40 +5986,34 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B386" s="10" t="s">
-        <v>310</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B386" s="9"/>
       <c r="C386" s="9"/>
-      <c r="D386" s="9"/>
-      <c r="E386" s="7" t="s">
-        <v>313</v>
+      <c r="D386" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E386" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B387" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C387" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D387" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E387" s="8" t="s">
-        <v>308</v>
+        <v>37</v>
+      </c>
+      <c r="B387" s="9"/>
+      <c r="C387" s="9"/>
+      <c r="D387" s="9"/>
+      <c r="E387" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B388" s="11" t="s">
-        <v>312</v>
+        <v>59</v>
+      </c>
+      <c r="B388" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="C388" s="9"/>
       <c r="D388" s="9"/>
@@ -5993,26 +6023,24 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B389" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C389" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D389" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E389" s="8" t="s">
-        <v>308</v>
+        <v>60</v>
+      </c>
+      <c r="B389" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C389" s="9"/>
+      <c r="D389" s="9"/>
+      <c r="E389" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B390" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="B390" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C390" s="9"/>
       <c r="D390" s="9"/>
       <c r="E390" s="7" t="s">
@@ -6021,22 +6049,28 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B391" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C391" s="9"/>
-      <c r="D391" s="9"/>
-      <c r="E391" s="7" t="s">
-        <v>313</v>
+        <v>286</v>
+      </c>
+      <c r="B391" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D391" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E391" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B392" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="B392" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C392" s="9"/>
       <c r="D392" s="9"/>
       <c r="E392" s="7" t="s">
@@ -6045,12 +6079,16 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B393" s="9"/>
-      <c r="C393" s="9"/>
-      <c r="D393" s="7" t="s">
-        <v>313</v>
+        <v>288</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D393" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E393" s="8" t="s">
         <v>308</v>
@@ -6058,56 +6096,42 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B394" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C394" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D394" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E394" s="8" t="s">
-        <v>308</v>
+        <v>44</v>
+      </c>
+      <c r="B394" s="9"/>
+      <c r="C394" s="9"/>
+      <c r="D394" s="9"/>
+      <c r="E394" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B395" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C395" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D395" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E395" s="8" t="s">
-        <v>308</v>
+        <v>45</v>
+      </c>
+      <c r="B395" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C395" s="9"/>
+      <c r="D395" s="9"/>
+      <c r="E395" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="B396" s="9"/>
-      <c r="C396" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D396" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E396" s="8" t="s">
-        <v>308</v>
+      <c r="C396" s="9"/>
+      <c r="D396" s="9"/>
+      <c r="E396" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -6120,23 +6144,33 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B398" s="9"/>
-      <c r="C398" s="9"/>
-      <c r="D398" s="9"/>
-      <c r="E398" s="7" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="B398" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D398" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E398" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B399" s="9"/>
-      <c r="C399" s="9"/>
-      <c r="D399" s="7" t="s">
-        <v>313</v>
+        <v>287</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D399" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E399" s="8" t="s">
         <v>308</v>
@@ -6144,12 +6178,14 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="B400" s="9"/>
-      <c r="C400" s="9"/>
-      <c r="D400" s="7" t="s">
-        <v>313</v>
+      <c r="C400" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D400" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="E400" s="8" t="s">
         <v>308</v>
@@ -6157,20 +6193,20 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B401" s="11" t="s">
-        <v>312</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B401" s="9"/>
       <c r="C401" s="9"/>
-      <c r="D401" s="9"/>
-      <c r="E401" s="7" t="s">
-        <v>313</v>
+      <c r="D401" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E401" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -6181,7 +6217,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -6194,7 +6230,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -6207,37 +6243,33 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B405" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B405" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C405" s="9"/>
-      <c r="D405" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E405" s="8" t="s">
-        <v>308</v>
+      <c r="D405" s="9"/>
+      <c r="E405" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
-      <c r="D406" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E406" s="8" t="s">
-        <v>308</v>
+      <c r="D406" s="9"/>
+      <c r="E406" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B407" s="11" t="s">
-        <v>312</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B407" s="9"/>
       <c r="C407" s="9"/>
       <c r="D407" s="7" t="s">
         <v>313</v>
@@ -6248,59 +6280,63 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
-      <c r="D408" s="9"/>
-      <c r="E408" s="7" t="s">
-        <v>313</v>
+      <c r="D408" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E408" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B409" s="11" t="s">
-        <v>312</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B409" s="9"/>
       <c r="C409" s="9"/>
-      <c r="D409" s="9"/>
-      <c r="E409" s="7" t="s">
-        <v>313</v>
+      <c r="D409" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E409" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B410" s="11" t="s">
-        <v>312</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B410" s="9"/>
       <c r="C410" s="9"/>
-      <c r="D410" s="9"/>
-      <c r="E410" s="7" t="s">
-        <v>313</v>
+      <c r="D410" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E410" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B411" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="B411" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C411" s="9"/>
-      <c r="D411" s="9"/>
-      <c r="E411" s="7" t="s">
-        <v>313</v>
+      <c r="D411" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E411" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B412" s="11" t="s">
-        <v>312</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B412" s="9"/>
       <c r="C412" s="9"/>
       <c r="D412" s="9"/>
       <c r="E412" s="7" t="s">
@@ -6309,9 +6345,11 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B413" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="B413" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C413" s="9"/>
       <c r="D413" s="9"/>
       <c r="E413" s="7" t="s">
@@ -6320,9 +6358,11 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B414" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="B414" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C414" s="9"/>
       <c r="D414" s="9"/>
       <c r="E414" s="7" t="s">
@@ -6331,22 +6371,22 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
-      <c r="D415" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E415" s="8" t="s">
-        <v>308</v>
+      <c r="D415" s="9"/>
+      <c r="E415" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B416" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="B416" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C416" s="9"/>
       <c r="D416" s="9"/>
       <c r="E416" s="7" t="s">
@@ -6355,7 +6395,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -6366,7 +6406,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -6377,18 +6417,20 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
-      <c r="D419" s="9"/>
-      <c r="E419" s="7" t="s">
-        <v>313</v>
+      <c r="D419" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E419" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -6399,7 +6441,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -6410,41 +6452,31 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B422" s="10" t="s">
-        <v>310</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B422" s="9"/>
       <c r="C422" s="9"/>
-      <c r="D422" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E422" s="8" t="s">
-        <v>308</v>
+      <c r="D422" s="9"/>
+      <c r="E422" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B423" s="11" t="s">
-        <v>312</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B423" s="9"/>
       <c r="C423" s="9"/>
-      <c r="D423" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E423" s="8" t="s">
-        <v>308</v>
+      <c r="D423" s="9"/>
+      <c r="E423" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B424" s="10" t="s">
-        <v>310</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B424" s="9"/>
       <c r="C424" s="9"/>
       <c r="D424" s="9"/>
       <c r="E424" s="7" t="s">
@@ -6453,11 +6485,9 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B425" s="11" t="s">
-        <v>312</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B425" s="9"/>
       <c r="C425" s="9"/>
       <c r="D425" s="9"/>
       <c r="E425" s="7" t="s">
@@ -6466,63 +6496,67 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B426" s="10" t="s">
         <v>310</v>
       </c>
       <c r="C426" s="9"/>
-      <c r="D426" s="9"/>
-      <c r="E426" s="7" t="s">
-        <v>313</v>
+      <c r="D426" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E426" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B427" s="11" t="s">
         <v>312</v>
       </c>
       <c r="C427" s="9"/>
-      <c r="D427" s="9"/>
-      <c r="E427" s="7" t="s">
-        <v>313</v>
+      <c r="D427" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E427" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B428" s="9"/>
-      <c r="C428" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="D428" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E428" s="8" t="s">
-        <v>308</v>
+        <v>64</v>
+      </c>
+      <c r="B428" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C428" s="9"/>
+      <c r="D428" s="9"/>
+      <c r="E428" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B429" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="B429" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C429" s="9"/>
-      <c r="D429" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E429" s="8" t="s">
-        <v>308</v>
+      <c r="D429" s="9"/>
+      <c r="E429" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B430" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="B430" s="10" t="s">
+        <v>310</v>
+      </c>
       <c r="C430" s="9"/>
       <c r="D430" s="9"/>
       <c r="E430" s="7" t="s">
@@ -6531,9 +6565,11 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B431" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="B431" s="11" t="s">
+        <v>312</v>
+      </c>
       <c r="C431" s="9"/>
       <c r="D431" s="9"/>
       <c r="E431" s="7" t="s">
@@ -6542,29 +6578,35 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="B432" s="9"/>
-      <c r="C432" s="9"/>
-      <c r="D432" s="9"/>
-      <c r="E432" s="7" t="s">
-        <v>313</v>
+      <c r="C432" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D432" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E432" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
-      <c r="D433" s="9"/>
-      <c r="E433" s="7" t="s">
-        <v>313</v>
+      <c r="D433" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E433" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -6575,37 +6617,31 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
-      <c r="D435" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E435" s="8" t="s">
-        <v>308</v>
+      <c r="D435" s="9"/>
+      <c r="E435" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
-      <c r="D436" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E436" s="8" t="s">
-        <v>308</v>
+      <c r="D436" s="9"/>
+      <c r="E436" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B437" s="11" t="s">
-        <v>312</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B437" s="9"/>
       <c r="C437" s="9"/>
       <c r="D437" s="9"/>
       <c r="E437" s="7" t="s">
@@ -6614,7 +6650,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -6623,103 +6659,111 @@
         <v>313</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A441" s="2" t="s">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B439" s="9"/>
+      <c r="C439" s="9"/>
+      <c r="D439" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E439" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B440" s="9"/>
+      <c r="C440" s="9"/>
+      <c r="D440" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E440" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B441" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C441" s="9"/>
+      <c r="D441" s="9"/>
+      <c r="E441" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B442" s="9"/>
+      <c r="C442" s="9"/>
+      <c r="D442" s="9"/>
+      <c r="E442" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A442" s="15" t="s">
+    <row r="446" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A446" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="B442" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C442" s="1" t="s">
+      <c r="C446" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A443" s="16"/>
-      <c r="B443" s="1" t="s">
+    <row r="447" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A447" s="15"/>
+      <c r="B447" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C443" s="1" t="s">
+      <c r="C447" s="1" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B444" s="9"/>
-      <c r="C444" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B445" s="9"/>
-      <c r="C445" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B446" s="9"/>
-      <c r="C446" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B447" s="9"/>
-      <c r="C447" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B448" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C448" s="8" t="s">
-        <v>308</v>
+        <v>191</v>
+      </c>
+      <c r="B448" s="9"/>
+      <c r="C448" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B449" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C449" s="8" t="s">
-        <v>308</v>
+        <v>228</v>
+      </c>
+      <c r="B449" s="9"/>
+      <c r="C449" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B450" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C450" s="8" t="s">
-        <v>308</v>
+        <v>86</v>
+      </c>
+      <c r="B450" s="9"/>
+      <c r="C450" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B451" s="9"/>
       <c r="C451" s="7" t="s">
@@ -6728,10 +6772,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B452" s="7" t="s">
-        <v>313</v>
+        <v>59</v>
+      </c>
+      <c r="B452" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="C452" s="8" t="s">
         <v>308</v>
@@ -6739,21 +6783,21 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B453" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C453" s="7" t="s">
-        <v>313</v>
+        <v>60</v>
+      </c>
+      <c r="B453" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C453" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B454" s="7" t="s">
-        <v>313</v>
+        <v>61</v>
+      </c>
+      <c r="B454" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="C454" s="8" t="s">
         <v>308</v>
@@ -6761,7 +6805,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
       <c r="B455" s="9"/>
       <c r="C455" s="7" t="s">
@@ -6770,7 +6814,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B456" s="7" t="s">
         <v>313</v>
@@ -6781,27 +6825,29 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B457" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C457" s="8" t="s">
-        <v>308</v>
+        <v>38</v>
+      </c>
+      <c r="B457" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C457" s="7" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B458" s="9"/>
-      <c r="C458" s="7" t="s">
-        <v>313</v>
+        <v>288</v>
+      </c>
+      <c r="B458" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C458" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B459" s="9"/>
       <c r="C459" s="7" t="s">
@@ -6810,25 +6856,29 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B460" s="9"/>
-      <c r="C460" s="7" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="B460" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C460" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B461" s="9"/>
-      <c r="C461" s="7" t="s">
-        <v>313</v>
+        <v>287</v>
+      </c>
+      <c r="B461" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C461" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="B462" s="9"/>
       <c r="C462" s="7" t="s">
@@ -6837,7 +6887,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
-        <v>232</v>
+        <v>56</v>
       </c>
       <c r="B463" s="9"/>
       <c r="C463" s="7" t="s">
@@ -6846,7 +6896,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="B464" s="9"/>
       <c r="C464" s="7" t="s">
@@ -6855,7 +6905,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="B465" s="9"/>
       <c r="C465" s="7" t="s">
@@ -6864,7 +6914,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="B466" s="9"/>
       <c r="C466" s="7" t="s">
@@ -6873,7 +6923,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="B467" s="9"/>
       <c r="C467" s="7" t="s">
@@ -6882,7 +6932,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="B468" s="9"/>
       <c r="C468" s="7" t="s">
@@ -6891,7 +6941,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="B469" s="9"/>
       <c r="C469" s="7" t="s">
@@ -6900,7 +6950,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="B470" s="9"/>
       <c r="C470" s="7" t="s">
@@ -6909,7 +6959,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="4" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="B471" s="9"/>
       <c r="C471" s="7" t="s">
@@ -6918,7 +6968,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B472" s="9"/>
       <c r="C472" s="7" t="s">
@@ -6927,7 +6977,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="B473" s="9"/>
       <c r="C473" s="7" t="s">
@@ -6936,7 +6986,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B474" s="9"/>
       <c r="C474" s="7" t="s">
@@ -6945,7 +6995,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="B475" s="9"/>
       <c r="C475" s="7" t="s">
@@ -6954,7 +7004,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="B476" s="9"/>
       <c r="C476" s="7" t="s">
@@ -6963,7 +7013,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="B477" s="9"/>
       <c r="C477" s="7" t="s">
@@ -6972,7 +7022,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="B478" s="9"/>
       <c r="C478" s="7" t="s">
@@ -6981,7 +7031,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="B479" s="9"/>
       <c r="C479" s="7" t="s">
@@ -6990,7 +7040,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="B480" s="9"/>
       <c r="C480" s="7" t="s">
@@ -6999,7 +7049,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="B481" s="9"/>
       <c r="C481" s="7" t="s">
@@ -7008,7 +7058,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B482" s="9"/>
       <c r="C482" s="7" t="s">
@@ -7017,7 +7067,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B483" s="9"/>
       <c r="C483" s="7" t="s">
@@ -7026,7 +7076,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="B484" s="9"/>
       <c r="C484" s="7" t="s">
@@ -7035,7 +7085,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B485" s="9"/>
       <c r="C485" s="7" t="s">
@@ -7044,7 +7094,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B486" s="9"/>
       <c r="C486" s="7" t="s">
@@ -7053,7 +7103,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="B487" s="9"/>
       <c r="C487" s="7" t="s">
@@ -7062,7 +7112,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B488" s="9"/>
       <c r="C488" s="7" t="s">
@@ -7071,35 +7121,71 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B489" s="9"/>
       <c r="C489" s="7" t="s">
         <v>313</v>
       </c>
     </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B490" s="9"/>
+      <c r="C490" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B491" s="9"/>
+      <c r="C491" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B492" s="9"/>
+      <c r="C492" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B493" s="9"/>
+      <c r="C493" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:E80">
-    <sortCondition ref="A9:A80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:E84">
+    <sortCondition ref="A9:A84"/>
   </sortState>
   <mergeCells count="17">
-    <mergeCell ref="A318:A319"/>
-    <mergeCell ref="A355:A356"/>
-    <mergeCell ref="A442:A443"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="C297:C314"/>
+    <mergeCell ref="C301:C318"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A88:A89"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="A359:A360"/>
+    <mergeCell ref="A446:A447"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="A299:A300"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -7107,12 +7193,12 @@
     <oddFooter>&amp;L&amp;F &amp;D</oddFooter>
   </headerFooter>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="82" max="16383" man="1"/>
-    <brk id="161" max="16383" man="1"/>
-    <brk id="220" max="16383" man="1"/>
-    <brk id="293" max="16383" man="1"/>
-    <brk id="353" max="16383" man="1"/>
-    <brk id="440" max="16383" man="1"/>
+    <brk id="86" max="16383" man="1"/>
+    <brk id="165" max="16383" man="1"/>
+    <brk id="224" max="16383" man="1"/>
+    <brk id="297" max="16383" man="1"/>
+    <brk id="357" max="16383" man="1"/>
+    <brk id="444" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/InstallerContent/ASCOMInterfaceRevisions.xlsx
+++ b/InstallerContent/ASCOMInterfaceRevisions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ASCOMPlatform\InstallerContent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5CAF4C-0C49-4DAA-A783-C369B071BB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24686642-6313-4973-9ECC-38DFED4A147A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{C77C0BB1-9FCB-4A82-8AED-44FFC5395220}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="319">
   <si>
     <t>Telescope</t>
   </si>
@@ -1236,14 +1236,14 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1607,10 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCFDDAB-B80A-4B5D-BA40-62EFE29ED36B}">
   <dimension ref="A1:F493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A358" sqref="A358"/>
-      <selection pane="bottomLeft" activeCell="A361" sqref="A361"/>
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1661,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1683,7 +1681,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>83</v>
       </c>
@@ -2758,7 +2756,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -2769,7 +2767,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="1" t="s">
         <v>247</v>
       </c>
@@ -3055,7 +3053,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -3069,7 +3067,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="15"/>
+      <c r="A122" s="16"/>
       <c r="B122" s="1" t="s">
         <v>121</v>
       </c>
@@ -3300,7 +3298,9 @@
       <c r="A143" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B143" s="9"/>
+      <c r="B143" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C143" s="8" t="s">
         <v>308</v>
       </c>
@@ -3524,7 +3524,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="14" t="s">
+      <c r="A167" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -3538,7 +3538,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
+      <c r="A168" s="16"/>
       <c r="B168" s="1" t="s">
         <v>150</v>
       </c>
@@ -3659,7 +3659,9 @@
       <c r="A177" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B177" s="9"/>
+      <c r="B177" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C177" s="8" t="s">
         <v>308</v>
       </c>
@@ -3671,7 +3673,9 @@
       <c r="A178" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B178" s="9"/>
+      <c r="B178" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C178" s="8" t="s">
         <v>308</v>
       </c>
@@ -3797,7 +3801,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="14" t="s">
+      <c r="A192" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -3814,7 +3818,7 @@
       </c>
     </row>
     <row r="193" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="15"/>
+      <c r="A193" s="16"/>
       <c r="B193" s="1" t="s">
         <v>157</v>
       </c>
@@ -4217,7 +4221,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="14" t="s">
+      <c r="A226" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -4228,7 +4232,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="15"/>
+      <c r="A227" s="16"/>
       <c r="B227" s="1" t="s">
         <v>265</v>
       </c>
@@ -4564,7 +4568,7 @@
       </c>
     </row>
     <row r="265" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="14" t="s">
+      <c r="A265" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -4581,7 +4585,7 @@
       </c>
     </row>
     <row r="266" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="15"/>
+      <c r="A266" s="16"/>
       <c r="B266" s="1" t="s">
         <v>175</v>
       </c>
@@ -5000,7 +5004,7 @@
       </c>
     </row>
     <row r="299" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A299" s="14" t="s">
+      <c r="A299" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B299" s="1" t="s">
@@ -5012,7 +5016,7 @@
       </c>
     </row>
     <row r="300" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A300" s="15"/>
+      <c r="A300" s="16"/>
       <c r="B300" s="1" t="s">
         <v>208</v>
       </c>
@@ -5028,7 +5032,7 @@
         <v>191</v>
       </c>
       <c r="B301" s="9"/>
-      <c r="C301" s="16" t="s">
+      <c r="C301" s="14" t="s">
         <v>294</v>
       </c>
       <c r="D301" s="7" t="s">
@@ -5042,7 +5046,7 @@
       <c r="B302" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C302" s="16"/>
+      <c r="C302" s="14"/>
       <c r="D302" s="7" t="s">
         <v>313</v>
       </c>
@@ -5054,7 +5058,7 @@
       <c r="B303" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C303" s="16"/>
+      <c r="C303" s="14"/>
       <c r="D303" s="7" t="s">
         <v>313</v>
       </c>
@@ -5066,7 +5070,7 @@
       <c r="B304" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C304" s="16"/>
+      <c r="C304" s="14"/>
       <c r="D304" s="7" t="s">
         <v>313</v>
       </c>
@@ -5078,7 +5082,7 @@
       <c r="B305" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C305" s="16"/>
+      <c r="C305" s="14"/>
       <c r="D305" s="8" t="s">
         <v>308</v>
       </c>
@@ -5090,7 +5094,7 @@
       <c r="B306" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C306" s="16"/>
+      <c r="C306" s="14"/>
       <c r="D306" s="7" t="s">
         <v>313</v>
       </c>
@@ -5102,7 +5106,7 @@
       <c r="B307" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C307" s="16"/>
+      <c r="C307" s="14"/>
       <c r="D307" s="8" t="s">
         <v>308</v>
       </c>
@@ -5112,7 +5116,7 @@
         <v>55</v>
       </c>
       <c r="B308" s="9"/>
-      <c r="C308" s="16"/>
+      <c r="C308" s="14"/>
       <c r="D308" s="7" t="s">
         <v>313</v>
       </c>
@@ -5124,7 +5128,7 @@
       <c r="B309" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C309" s="16"/>
+      <c r="C309" s="14"/>
       <c r="D309" s="8" t="s">
         <v>308</v>
       </c>
@@ -5136,7 +5140,7 @@
       <c r="B310" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C310" s="16"/>
+      <c r="C310" s="14"/>
       <c r="D310" s="8" t="s">
         <v>308</v>
       </c>
@@ -5146,7 +5150,7 @@
         <v>193</v>
       </c>
       <c r="B311" s="9"/>
-      <c r="C311" s="16"/>
+      <c r="C311" s="14"/>
       <c r="D311" s="7" t="s">
         <v>313</v>
       </c>
@@ -5156,7 +5160,7 @@
         <v>56</v>
       </c>
       <c r="B312" s="9"/>
-      <c r="C312" s="16"/>
+      <c r="C312" s="14"/>
       <c r="D312" s="7" t="s">
         <v>313</v>
       </c>
@@ -5166,7 +5170,7 @@
         <v>11</v>
       </c>
       <c r="B313" s="9"/>
-      <c r="C313" s="16"/>
+      <c r="C313" s="14"/>
       <c r="D313" s="7" t="s">
         <v>313</v>
       </c>
@@ -5176,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="B314" s="9"/>
-      <c r="C314" s="16"/>
+      <c r="C314" s="14"/>
       <c r="D314" s="7" t="s">
         <v>313</v>
       </c>
@@ -5186,7 +5190,7 @@
         <v>211</v>
       </c>
       <c r="B315" s="9"/>
-      <c r="C315" s="16"/>
+      <c r="C315" s="14"/>
       <c r="D315" s="7" t="s">
         <v>313</v>
       </c>
@@ -5196,7 +5200,7 @@
         <v>57</v>
       </c>
       <c r="B316" s="9"/>
-      <c r="C316" s="16"/>
+      <c r="C316" s="14"/>
       <c r="D316" s="7" t="s">
         <v>313</v>
       </c>
@@ -5206,7 +5210,7 @@
         <v>63</v>
       </c>
       <c r="B317" s="9"/>
-      <c r="C317" s="16"/>
+      <c r="C317" s="14"/>
       <c r="D317" s="7" t="s">
         <v>313</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>206</v>
       </c>
       <c r="B318" s="9"/>
-      <c r="C318" s="16"/>
+      <c r="C318" s="14"/>
       <c r="D318" s="7" t="s">
         <v>313</v>
       </c>
@@ -5227,7 +5231,7 @@
       </c>
     </row>
     <row r="322" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A322" s="14" t="s">
+      <c r="A322" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B322" s="1" t="s">
@@ -5241,7 +5245,7 @@
       </c>
     </row>
     <row r="323" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A323" s="15"/>
+      <c r="A323" s="16"/>
       <c r="B323" s="1" t="s">
         <v>185</v>
       </c>
@@ -5642,7 +5646,7 @@
       </c>
     </row>
     <row r="359" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A359" s="14" t="s">
+      <c r="A359" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B359" s="1" t="s">
@@ -5659,7 +5663,7 @@
       </c>
     </row>
     <row r="360" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A360" s="15"/>
+      <c r="A360" s="16"/>
       <c r="B360" s="1" t="s">
         <v>79</v>
       </c>
@@ -6715,7 +6719,7 @@
       </c>
     </row>
     <row r="446" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A446" s="14" t="s">
+      <c r="A446" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B446" s="1" t="s">
@@ -6726,7 +6730,7 @@
       </c>
     </row>
     <row r="447" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A447" s="15"/>
+      <c r="A447" s="16"/>
       <c r="B447" s="1" t="s">
         <v>223</v>
       </c>
@@ -7169,6 +7173,13 @@
     <sortCondition ref="A9:A84"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="A359:A360"/>
+    <mergeCell ref="A446:A447"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="A299:A300"/>
     <mergeCell ref="C301:C318"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A88:A89"/>
@@ -7179,18 +7190,11 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="A121:A122"/>
     <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A322:A323"/>
-    <mergeCell ref="A359:A360"/>
-    <mergeCell ref="A446:A447"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A265:A266"/>
-    <mergeCell ref="A299:A300"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;F &amp;D</oddFooter>
+    <oddFooter>&amp;L&amp;F &amp;D&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="6" manualBreakCount="6">
     <brk id="86" max="16383" man="1"/>
